--- a/4月/4月份客户发货需求(4.19).xlsx
+++ b/4月/4月份客户发货需求(4.19).xlsx
@@ -10,7 +10,7 @@
     <sheet name="4月份客户发货需求" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月份客户发货需求'!$A$1:$W$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月份客户发货需求'!$A$1:$W$177</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -626,12 +626,262 @@
         </r>
       </text>
     </comment>
+    <comment ref="F175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>发往曼谷，Zhang Jie :0647293098</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4.7号订单</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>枕芯裂开</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>回弹不了</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>枕芯问题</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">枕芯问题
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>枕芯问题</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>换A款</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A184" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F184" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>U8枕套坏了</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F185" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>u1枕套 -2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F186" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>U10 蓝色</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">U10 灰色
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="468">
   <si>
     <t>下单日期</t>
   </si>
@@ -1935,6 +2185,15 @@
     <t>广西壮族自治区钦州市浦北县第四中学教师周转房项目部</t>
   </si>
   <si>
+    <t>邓桂芳</t>
+  </si>
+  <si>
+    <t>李小姐</t>
+  </si>
+  <si>
+    <t>浙江省金华市义乌市上溪镇上佛路幽香苑1棟1单元701室</t>
+  </si>
+  <si>
     <t>刘月艳</t>
   </si>
   <si>
@@ -1945,6 +2204,93 @@
   </si>
   <si>
     <t>广东省阳江市阳春市春城街道阳春大道南阳春市公安局</t>
+  </si>
+  <si>
+    <t>泰国发货</t>
+  </si>
+  <si>
+    <t>Zheng Jie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海外泰国曼谷ห้อง 411 JDM house 74 ซอย ประชาอุทิศ 24 กทม 10310 </t>
+  </si>
+  <si>
+    <t>赵午辉</t>
+  </si>
+  <si>
+    <t>李玉凤</t>
+  </si>
+  <si>
+    <t>河南省周口市郸城县人民会堂东10米 龙安电器</t>
+  </si>
+  <si>
+    <t>u9A-1</t>
+  </si>
+  <si>
+    <t>U2A-2</t>
+  </si>
+  <si>
+    <t>董晓欣</t>
+  </si>
+  <si>
+    <t>黑龙江省佳木斯市，向阳区，白金湾小区，多层3号楼1单元401</t>
+  </si>
+  <si>
+    <t>u9A-2</t>
+  </si>
+  <si>
+    <t>u2-1，u6-1</t>
+  </si>
+  <si>
+    <t>张彩霞</t>
+  </si>
+  <si>
+    <t>山东省济南市天桥区泺口街道新黄路新城小区西苑3-2-603</t>
+  </si>
+  <si>
+    <t>u4A-1</t>
+  </si>
+  <si>
+    <t>刘灿</t>
+  </si>
+  <si>
+    <t>湖南省长沙市雨花区长沙大道黎托街道锦苑小区二栋二单元</t>
+  </si>
+  <si>
+    <t>u8枕头套粉色-1</t>
+  </si>
+  <si>
+    <t>王月鹏</t>
+  </si>
+  <si>
+    <t>山东省烟台市福山区开发区淮河路1号林语逸景11-2406</t>
+  </si>
+  <si>
+    <t>谢素丽</t>
+  </si>
+  <si>
+    <t>广西壮族自治区柳州市鱼峰区文昌路3号南亚名邸56-21-6</t>
+  </si>
+  <si>
+    <t>刘芳</t>
+  </si>
+  <si>
+    <t>云南省玉溪市通海县秀山街道古城东路64号</t>
+  </si>
+  <si>
+    <t>US5-1</t>
+  </si>
+  <si>
+    <t>丁群丽</t>
+  </si>
+  <si>
+    <t>湖南省长沙市岳麓区枫林三路涉外公馆8栋405</t>
+  </si>
+  <si>
+    <t>魏燕</t>
+  </si>
+  <si>
+    <t>四川省乐山市市中区车子北京桥路133号</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +2306,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1983,6 +2329,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1995,6 +2355,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2518,10 +2884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2530,145 +2896,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2676,44 +3044,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2721,9 +3089,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
@@ -3048,26 +3434,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AA1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I196" sqref="I196"/>
+      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.9416666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1"/>
     <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="117.125" style="1" customWidth="1"/>
-    <col min="10" max="19" width="9" style="5"/>
+    <col min="8" max="8" width="23.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="103.233333333333" style="1" customWidth="1"/>
+    <col min="10" max="19" width="9" style="7"/>
     <col min="20" max="20" width="9" style="1"/>
     <col min="21" max="21" width="19.25" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.875" style="1" customWidth="1"/>
@@ -3076,69 +3462,69 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:27">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="19" t="s">
         <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -3149,7 +3535,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>43556</v>
       </c>
       <c r="B2" s="1">
@@ -3173,19 +3559,19 @@
       <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
         <v>2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="V2" s="18" t="str">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="V2" s="20" t="str">
         <f>"7700116778116"</f>
         <v>7700116778116</v>
       </c>
@@ -3199,7 +3585,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>43556</v>
       </c>
       <c r="B3" s="1">
@@ -3223,21 +3609,21 @@
       <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="7">
         <v>14</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
         <v>3</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="V3" s="18" t="str">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="V3" s="20" t="str">
         <f>"7700116778113"</f>
         <v>7700116778113</v>
       </c>
@@ -3251,7 +3637,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>43556</v>
       </c>
       <c r="B4" s="1">
@@ -3275,19 +3661,19 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <v>2</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="V4" s="18" t="str">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="V4" s="20" t="str">
         <f>"7700116778106"</f>
         <v>7700116778106</v>
       </c>
@@ -3301,7 +3687,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>43556</v>
       </c>
       <c r="B5" s="1">
@@ -3325,21 +3711,21 @@
       <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="28" t="s">
+      <c r="V5" s="20"/>
+      <c r="W5" s="38" t="s">
         <v>35</v>
       </c>
       <c r="Z5" s="1">
@@ -3352,7 +3738,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>43556</v>
       </c>
       <c r="B6" s="1">
@@ -3376,20 +3762,20 @@
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
       <c r="U6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="38" t="s">
         <v>38</v>
       </c>
       <c r="Z6" s="1">
@@ -3402,7 +3788,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>43556</v>
       </c>
       <c r="B7" s="1">
@@ -3426,21 +3812,21 @@
       <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
       <c r="U7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="28" t="s">
+      <c r="V7" s="20"/>
+      <c r="W7" s="38" t="s">
         <v>40</v>
       </c>
       <c r="Z7" s="1">
@@ -3453,7 +3839,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>43556</v>
       </c>
       <c r="B8" s="1">
@@ -3477,19 +3863,19 @@
       <c r="I8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="V8" s="18" t="str">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="V8" s="20" t="str">
         <f>"7700116778115"</f>
         <v>7700116778115</v>
       </c>
@@ -3503,7 +3889,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>43556</v>
       </c>
       <c r="B9" s="1">
@@ -3527,21 +3913,21 @@
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="7">
         <v>3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <v>3</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="V9" s="18" t="str">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="V9" s="20" t="str">
         <f>"7700116778105"</f>
         <v>7700116778105</v>
       </c>
@@ -3555,7 +3941,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>43556</v>
       </c>
       <c r="B10" s="1">
@@ -3576,27 +3962,27 @@
       <c r="G10" s="1">
         <v>13926721468</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="V10" s="18" t="str">
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="V10" s="20" t="str">
         <f>"7700116778119"</f>
         <v>7700116778119</v>
       </c>
@@ -3610,7 +3996,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>43556</v>
       </c>
       <c r="B11" s="1">
@@ -3631,27 +4017,27 @@
       <c r="G11" s="1">
         <v>18674390819</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="38" t="s">
         <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="V11" s="18" t="str">
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="V11" s="20" t="str">
         <f>"7700116778118"</f>
         <v>7700116778118</v>
       </c>
@@ -3665,7 +4051,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>43556</v>
       </c>
       <c r="B12" s="1">
@@ -3689,21 +4075,21 @@
       <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="7">
         <v>2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <v>2</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="V12" s="18" t="str">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="V12" s="20" t="str">
         <f>"7700116778114"</f>
         <v>7700116778114</v>
       </c>
@@ -3717,7 +4103,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>43556</v>
       </c>
       <c r="B13" s="1">
@@ -3741,21 +4127,21 @@
       <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="V13" s="18" t="str">
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="V13" s="20" t="str">
         <f>"7700116778112"</f>
         <v>7700116778112</v>
       </c>
@@ -3769,7 +4155,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>43556</v>
       </c>
       <c r="B14" s="1">
@@ -3793,19 +4179,19 @@
       <c r="I14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="V14" s="18" t="str">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="V14" s="20" t="str">
         <f>"7700116778111"</f>
         <v>7700116778111</v>
       </c>
@@ -3819,7 +4205,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A15" s="12">
+      <c r="A15" s="14">
         <v>43556</v>
       </c>
       <c r="B15" s="1">
@@ -3843,19 +4229,19 @@
       <c r="I15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="V15" s="18" t="str">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="V15" s="20" t="str">
         <f>"7700116778109"</f>
         <v>7700116778109</v>
       </c>
@@ -3869,7 +4255,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A16" s="12">
+      <c r="A16" s="14">
         <v>43556</v>
       </c>
       <c r="B16" s="1">
@@ -3893,19 +4279,19 @@
       <c r="I16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="V16" s="18" t="str">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="V16" s="20" t="str">
         <f>"7700116778108"</f>
         <v>7700116778108</v>
       </c>
@@ -3919,7 +4305,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A17" s="12">
+      <c r="A17" s="14">
         <v>43557</v>
       </c>
       <c r="B17" s="1">
@@ -3943,19 +4329,19 @@
       <c r="I17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <v>2</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="V17" s="19" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="V17" s="21" t="s">
         <v>72</v>
       </c>
       <c r="Z17" s="1">
@@ -3968,7 +4354,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <v>43557</v>
       </c>
       <c r="B18" s="1">
@@ -3992,21 +4378,21 @@
       <c r="I18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="V18" s="19" t="s">
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="V18" s="21" t="s">
         <v>75</v>
       </c>
       <c r="Z18" s="1">
@@ -4019,7 +4405,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A19" s="12">
+      <c r="A19" s="14">
         <v>43557</v>
       </c>
       <c r="B19" s="1">
@@ -4043,19 +4429,19 @@
       <c r="I19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="V19" s="19" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="V19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="Z19" s="1">
@@ -4068,7 +4454,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A20" s="12">
+      <c r="A20" s="14">
         <v>43557</v>
       </c>
       <c r="B20" s="1">
@@ -4089,24 +4475,24 @@
       <c r="G20" s="1">
         <v>15303437137</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7">
         <v>2</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="V20" s="19" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="V20" s="21" t="s">
         <v>82</v>
       </c>
       <c r="Z20" s="1">
@@ -4119,7 +4505,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="28.5" hidden="1" spans="1:27">
-      <c r="A21" s="12">
+      <c r="A21" s="14">
         <v>43557</v>
       </c>
       <c r="B21" s="1">
@@ -4140,33 +4526,33 @@
       <c r="G21" s="1">
         <v>13911011596</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5">
-        <v>1</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="V21" s="28" t="s">
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="V21" s="38" t="s">
         <v>87</v>
       </c>
       <c r="Z21" s="1">
@@ -4179,7 +4565,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A22" s="12">
+      <c r="A22" s="14">
         <v>43557</v>
       </c>
       <c r="B22" s="1">
@@ -4203,19 +4589,19 @@
       <c r="I22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="V22" s="19" t="s">
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="V22" s="21" t="s">
         <v>91</v>
       </c>
       <c r="Z22" s="1">
@@ -4228,7 +4614,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A23" s="12">
+      <c r="A23" s="14">
         <v>43557</v>
       </c>
       <c r="B23" s="1">
@@ -4252,19 +4638,19 @@
       <c r="I23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="V23" s="19" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="V23" s="21" t="s">
         <v>95</v>
       </c>
       <c r="Z23" s="1">
@@ -4277,7 +4663,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <v>43557</v>
       </c>
       <c r="B24" s="1">
@@ -4301,19 +4687,19 @@
       <c r="I24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7">
         <v>2</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="V24" s="19" t="s">
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="V24" s="21" t="s">
         <v>97</v>
       </c>
       <c r="Z24" s="1">
@@ -4326,7 +4712,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A25" s="12">
+      <c r="A25" s="14">
         <v>43557</v>
       </c>
       <c r="B25" s="1">
@@ -4350,19 +4736,19 @@
       <c r="I25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="V25" s="19" t="s">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="V25" s="21" t="s">
         <v>100</v>
       </c>
       <c r="Z25" s="1">
@@ -4375,7 +4761,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A26" s="12">
+      <c r="A26" s="14">
         <v>43557</v>
       </c>
       <c r="B26" s="1">
@@ -4399,19 +4785,19 @@
       <c r="I26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5">
-        <v>1</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="V26" s="19" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="V26" s="21" t="s">
         <v>103</v>
       </c>
       <c r="Z26" s="1">
@@ -4424,7 +4810,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A27" s="12">
+      <c r="A27" s="14">
         <v>43557</v>
       </c>
       <c r="B27" s="1">
@@ -4448,19 +4834,19 @@
       <c r="I27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="V27" s="19" t="s">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="V27" s="21" t="s">
         <v>105</v>
       </c>
       <c r="Z27" s="1">
@@ -4473,7 +4859,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A28" s="12">
+      <c r="A28" s="14">
         <v>43557</v>
       </c>
       <c r="B28" s="1">
@@ -4494,25 +4880,25 @@
       <c r="G28" s="1">
         <v>13769414941</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="38" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5">
-        <v>1</v>
-      </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="V28" s="28" t="s">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="V28" s="38" t="s">
         <v>110</v>
       </c>
       <c r="Z28" s="1">
@@ -4525,7 +4911,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A29" s="12">
+      <c r="A29" s="14">
         <v>43557</v>
       </c>
       <c r="B29" s="1">
@@ -4549,22 +4935,22 @@
       <c r="I29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="7">
         <v>4</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="7">
         <v>4</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7">
         <v>2</v>
       </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
       <c r="Z29" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4575,7 +4961,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A30" s="12">
+      <c r="A30" s="14">
         <v>43557</v>
       </c>
       <c r="B30" s="1">
@@ -4599,20 +4985,20 @@
       <c r="I30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5">
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7">
         <v>3</v>
       </c>
-      <c r="R30" s="5">
-        <v>1</v>
-      </c>
-      <c r="S30" s="5"/>
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7"/>
       <c r="Z30" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4623,7 +5009,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A31" s="12">
+      <c r="A31" s="14">
         <v>43558</v>
       </c>
       <c r="B31" s="1">
@@ -4647,25 +5033,25 @@
       <c r="I31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="7">
         <v>9</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="7">
         <v>11</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7">
         <v>6</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
         <v>6</v>
       </c>
-      <c r="S31" s="5"/>
-      <c r="V31" s="28" t="s">
+      <c r="S31" s="7"/>
+      <c r="V31" s="38" t="s">
         <v>118</v>
       </c>
       <c r="Z31" s="1">
@@ -4678,7 +5064,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A32" s="12">
+      <c r="A32" s="14">
         <v>43558</v>
       </c>
       <c r="B32" s="1">
@@ -4699,27 +5085,27 @@
       <c r="G32" s="1">
         <v>13834375859</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="38" t="s">
         <v>120</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="V32" s="28" t="s">
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
+        <v>1</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="V32" s="38" t="s">
         <v>122</v>
       </c>
       <c r="Z32" s="1">
@@ -4732,7 +5118,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A33" s="12">
+      <c r="A33" s="14">
         <v>43558</v>
       </c>
       <c r="B33" s="1">
@@ -4756,19 +5142,19 @@
       <c r="I33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5">
-        <v>1</v>
-      </c>
-      <c r="S33" s="5"/>
-      <c r="V33" s="29" t="s">
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="V33" s="39" t="s">
         <v>126</v>
       </c>
       <c r="Z33" s="1">
@@ -4781,7 +5167,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A34" s="12">
+      <c r="A34" s="14">
         <v>43558</v>
       </c>
       <c r="B34" s="1">
@@ -4805,21 +5191,21 @@
       <c r="I34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="V34" s="29" t="s">
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="V34" s="39" t="s">
         <v>129</v>
       </c>
       <c r="Z34" s="1">
@@ -4832,7 +5218,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A35" s="12">
+      <c r="A35" s="14">
         <v>43558</v>
       </c>
       <c r="B35" s="1">
@@ -4856,19 +5242,19 @@
       <c r="I35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="V35" s="29" t="s">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7">
+        <v>1</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="V35" s="39" t="s">
         <v>133</v>
       </c>
       <c r="Z35" s="1">
@@ -4881,7 +5267,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A36" s="12">
+      <c r="A36" s="14">
         <v>43558</v>
       </c>
       <c r="B36" s="1">
@@ -4902,22 +5288,22 @@
       <c r="G36" s="1">
         <v>13590276969</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="V36" s="29" t="s">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="V36" s="39" t="s">
         <v>136</v>
       </c>
       <c r="Z36" s="1">
@@ -4930,7 +5316,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A37" s="12">
+      <c r="A37" s="14">
         <v>43558</v>
       </c>
       <c r="B37" s="1">
@@ -4954,23 +5340,23 @@
       <c r="I37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5">
-        <v>1</v>
-      </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="V37" s="29" t="s">
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7">
+        <v>1</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="V37" s="39" t="s">
         <v>139</v>
       </c>
       <c r="Z37" s="1">
@@ -4983,7 +5369,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <v>43558</v>
       </c>
       <c r="B38" s="1">
@@ -5007,19 +5393,19 @@
       <c r="I38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5">
-        <v>1</v>
-      </c>
-      <c r="S38" s="5"/>
-      <c r="V38" s="29" t="s">
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7">
+        <v>1</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="V38" s="39" t="s">
         <v>143</v>
       </c>
       <c r="Z38" s="1">
@@ -5032,7 +5418,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A39" s="12">
+      <c r="A39" s="14">
         <v>43558</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -5056,23 +5442,23 @@
       <c r="I39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5">
-        <v>1</v>
-      </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7">
+        <v>1</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7">
         <v>3</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="7">
         <v>2</v>
       </c>
-      <c r="S39" s="5"/>
-      <c r="V39" s="29" t="s">
+      <c r="S39" s="7"/>
+      <c r="V39" s="39" t="s">
         <v>147</v>
       </c>
       <c r="Z39" s="1">
@@ -5085,7 +5471,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A40" s="12">
+      <c r="A40" s="14">
         <v>43558</v>
       </c>
       <c r="B40" s="1">
@@ -5109,21 +5495,21 @@
       <c r="I40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5">
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7">
         <v>5</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="V40" s="29" t="s">
+      <c r="S40" s="7"/>
+      <c r="V40" s="39" t="s">
         <v>150</v>
       </c>
       <c r="Z40" s="1">
@@ -5136,7 +5522,7 @@
       </c>
     </row>
     <row r="41" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A41" s="12">
+      <c r="A41" s="14">
         <v>43558</v>
       </c>
       <c r="B41" s="1">
@@ -5160,19 +5546,19 @@
       <c r="I41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7">
         <v>2</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="V41" s="29" t="s">
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="V41" s="39" t="s">
         <v>153</v>
       </c>
       <c r="Z41" s="1">
@@ -5185,7 +5571,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A42" s="12">
+      <c r="A42" s="14">
         <v>43558</v>
       </c>
       <c r="B42" s="1">
@@ -5206,24 +5592,24 @@
       <c r="G42" s="1">
         <v>13613016376</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="7">
         <v>3</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="7">
         <v>2</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="V42" s="29" t="s">
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="V42" s="39" t="s">
         <v>157</v>
       </c>
       <c r="Z42" s="1">
@@ -5236,7 +5622,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A43" s="12">
+      <c r="A43" s="14">
         <v>43558</v>
       </c>
       <c r="B43" s="1">
@@ -5260,21 +5646,21 @@
       <c r="I43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="7">
         <v>4</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
         <v>5</v>
       </c>
-      <c r="S43" s="5"/>
-      <c r="V43" s="29" t="s">
+      <c r="S43" s="7"/>
+      <c r="V43" s="39" t="s">
         <v>160</v>
       </c>
       <c r="Z43" s="1">
@@ -5287,7 +5673,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A44" s="12">
+      <c r="A44" s="14">
         <v>43558</v>
       </c>
       <c r="B44" s="1">
@@ -5311,21 +5697,21 @@
       <c r="I44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5">
-        <v>1</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="V44" s="29" t="s">
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7">
+        <v>1</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7">
+        <v>1</v>
+      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="V44" s="39" t="s">
         <v>163</v>
       </c>
       <c r="Z44" s="1">
@@ -5338,7 +5724,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A45" s="12">
+      <c r="A45" s="14">
         <v>43558</v>
       </c>
       <c r="B45" s="1">
@@ -5362,21 +5748,21 @@
       <c r="I45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J45" s="5">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5">
-        <v>1</v>
-      </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="V45" s="29" t="s">
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="V45" s="39" t="s">
         <v>165</v>
       </c>
       <c r="Z45" s="1">
@@ -5389,7 +5775,7 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A46" s="12">
+      <c r="A46" s="14">
         <v>43558</v>
       </c>
       <c r="B46" s="1">
@@ -5413,21 +5799,21 @@
       <c r="I46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7">
         <v>4</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5">
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7">
         <v>2</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="V46" s="29" t="s">
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="V46" s="39" t="s">
         <v>168</v>
       </c>
       <c r="Z46" s="1">
@@ -5440,7 +5826,7 @@
       </c>
     </row>
     <row r="47" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A47" s="12">
+      <c r="A47" s="14">
         <v>43559</v>
       </c>
       <c r="B47" s="1">
@@ -5464,19 +5850,19 @@
       <c r="I47" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5">
-        <v>1</v>
-      </c>
-      <c r="S47" s="5"/>
-      <c r="V47" s="29" t="s">
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <v>1</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="V47" s="39" t="s">
         <v>171</v>
       </c>
       <c r="Z47" s="1">
@@ -5489,7 +5875,7 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A48" s="12">
+      <c r="A48" s="14">
         <v>43559</v>
       </c>
       <c r="B48" s="1">
@@ -5513,19 +5899,19 @@
       <c r="I48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5">
-        <v>1</v>
-      </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="V48" s="29" t="s">
+      <c r="J48" s="7"/>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="V48" s="39" t="s">
         <v>174</v>
       </c>
       <c r="Z48" s="1">
@@ -5538,7 +5924,7 @@
       </c>
     </row>
     <row r="49" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A49" s="12">
+      <c r="A49" s="14">
         <v>43559</v>
       </c>
       <c r="B49" s="1">
@@ -5562,19 +5948,19 @@
       <c r="I49" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5">
-        <v>1</v>
-      </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="V49" s="29" t="s">
+      <c r="J49" s="7"/>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="V49" s="39" t="s">
         <v>177</v>
       </c>
       <c r="Z49" s="1">
@@ -5587,7 +5973,7 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A50" s="12">
+      <c r="A50" s="14">
         <v>43559</v>
       </c>
       <c r="B50" s="1">
@@ -5611,19 +5997,19 @@
       <c r="I50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5">
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7">
         <v>5</v>
       </c>
-      <c r="S50" s="5"/>
-      <c r="V50" s="29" t="s">
+      <c r="S50" s="7"/>
+      <c r="V50" s="39" t="s">
         <v>180</v>
       </c>
       <c r="Z50" s="1">
@@ -5636,7 +6022,7 @@
       </c>
     </row>
     <row r="51" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A51" s="12">
+      <c r="A51" s="14">
         <v>43559</v>
       </c>
       <c r="B51" s="1">
@@ -5660,19 +6046,19 @@
       <c r="I51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5">
-        <v>1</v>
-      </c>
-      <c r="S51" s="5"/>
-      <c r="V51" s="29" t="s">
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>1</v>
+      </c>
+      <c r="S51" s="7"/>
+      <c r="V51" s="39" t="s">
         <v>184</v>
       </c>
       <c r="Z51" s="1">
@@ -5685,7 +6071,7 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A52" s="12">
+      <c r="A52" s="14">
         <v>43559</v>
       </c>
       <c r="B52" s="1">
@@ -5709,19 +6095,19 @@
       <c r="I52" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5">
-        <v>1</v>
-      </c>
-      <c r="S52" s="5"/>
-      <c r="V52" s="29" t="s">
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7">
+        <v>1</v>
+      </c>
+      <c r="S52" s="7"/>
+      <c r="V52" s="39" t="s">
         <v>187</v>
       </c>
       <c r="Z52" s="1">
@@ -5734,7 +6120,7 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A53" s="12">
+      <c r="A53" s="14">
         <v>43559</v>
       </c>
       <c r="B53" s="1">
@@ -5758,19 +6144,19 @@
       <c r="I53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="V53" s="29" t="s">
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="V53" s="39" t="s">
         <v>190</v>
       </c>
       <c r="Z53" s="1">
@@ -5783,7 +6169,7 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A54" s="12">
+      <c r="A54" s="14">
         <v>43559</v>
       </c>
       <c r="B54" s="1">
@@ -5807,29 +6193,29 @@
       <c r="I54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="7">
         <v>10</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7">
         <v>4</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>4</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5">
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7">
         <v>4</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="Q54" s="7">
         <v>10</v>
       </c>
-      <c r="R54" s="5">
+      <c r="R54" s="7">
         <v>4</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="V54" s="29" t="s">
+      <c r="S54" s="7"/>
+      <c r="V54" s="39" t="s">
         <v>193</v>
       </c>
       <c r="Z54" s="1">
@@ -5842,7 +6228,7 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A55" s="12">
+      <c r="A55" s="14">
         <v>43559</v>
       </c>
       <c r="B55" s="1">
@@ -5866,19 +6252,19 @@
       <c r="I55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5">
-        <v>1</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="V55" s="29" t="s">
+      <c r="J55" s="7"/>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="V55" s="39" t="s">
         <v>196</v>
       </c>
       <c r="Z55" s="1">
@@ -5891,7 +6277,7 @@
       </c>
     </row>
     <row r="56" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A56" s="12">
+      <c r="A56" s="14">
         <v>43559</v>
       </c>
       <c r="B56" s="1">
@@ -5915,21 +6301,21 @@
       <c r="I56" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
       <c r="U56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="V56" s="20"/>
-      <c r="W56" s="28" t="s">
+      <c r="V56" s="22"/>
+      <c r="W56" s="38" t="s">
         <v>201</v>
       </c>
       <c r="Z56" s="1">
@@ -5942,7 +6328,7 @@
       </c>
     </row>
     <row r="57" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A57" s="12">
+      <c r="A57" s="14">
         <v>43559</v>
       </c>
       <c r="B57" s="1">
@@ -5966,21 +6352,21 @@
       <c r="I57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5">
-        <v>1</v>
-      </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5">
-        <v>1</v>
-      </c>
-      <c r="S57" s="5"/>
-      <c r="V57" s="29" t="s">
+      <c r="J57" s="7"/>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <v>1</v>
+      </c>
+      <c r="S57" s="7"/>
+      <c r="V57" s="39" t="s">
         <v>204</v>
       </c>
       <c r="Z57" s="1">
@@ -5993,7 +6379,7 @@
       </c>
     </row>
     <row r="58" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A58" s="12">
+      <c r="A58" s="14">
         <v>43559</v>
       </c>
       <c r="B58" s="1">
@@ -6017,19 +6403,19 @@
       <c r="I58" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5">
+      <c r="J58" s="7"/>
+      <c r="K58" s="7">
         <v>2</v>
       </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="V58" s="29" t="s">
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="V58" s="39" t="s">
         <v>205</v>
       </c>
       <c r="Z58" s="1">
@@ -6042,7 +6428,7 @@
       </c>
     </row>
     <row r="59" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A59" s="12">
+      <c r="A59" s="14">
         <v>43559</v>
       </c>
       <c r="B59" s="1">
@@ -6066,19 +6452,19 @@
       <c r="I59" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="V59" s="29" t="s">
+      <c r="J59" s="7"/>
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="V59" s="39" t="s">
         <v>208</v>
       </c>
       <c r="Z59" s="1">
@@ -6091,7 +6477,7 @@
       </c>
     </row>
     <row r="60" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A60" s="12">
+      <c r="A60" s="14">
         <v>43559</v>
       </c>
       <c r="B60" s="1">
@@ -6115,21 +6501,21 @@
       <c r="I60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
       <c r="U60" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="V60" s="20"/>
-      <c r="W60" s="28" t="s">
+      <c r="V60" s="22"/>
+      <c r="W60" s="38" t="s">
         <v>211</v>
       </c>
       <c r="Z60" s="1">
@@ -6142,7 +6528,7 @@
       </c>
     </row>
     <row r="61" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A61" s="12">
+      <c r="A61" s="14">
         <v>43559</v>
       </c>
       <c r="B61" s="1">
@@ -6166,27 +6552,27 @@
       <c r="I61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5">
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7">
         <v>4</v>
       </c>
-      <c r="L61" s="5">
-        <v>1</v>
-      </c>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5">
+      <c r="L61" s="7">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7">
         <v>2</v>
       </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5">
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7">
         <v>2</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="V61" s="29" t="s">
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="V61" s="39" t="s">
         <v>215</v>
       </c>
       <c r="Z61" s="1">
@@ -6199,7 +6585,7 @@
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="15.95" hidden="1" customHeight="1" spans="1:27">
-      <c r="A62" s="12">
+      <c r="A62" s="14">
         <v>43563</v>
       </c>
       <c r="B62" s="1">
@@ -6223,19 +6609,19 @@
       <c r="I62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5">
+      <c r="J62" s="7"/>
+      <c r="K62" s="7">
         <v>2</v>
       </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="V62" s="20" t="s">
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="V62" s="22" t="s">
         <v>218</v>
       </c>
       <c r="Z62" s="1">
@@ -6248,7 +6634,7 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A63" s="12">
+      <c r="A63" s="14">
         <v>43563</v>
       </c>
       <c r="B63" s="1">
@@ -6272,19 +6658,19 @@
       <c r="I63" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5">
-        <v>1</v>
-      </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="V63" s="20" t="s">
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7">
+        <v>1</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="V63" s="22" t="s">
         <v>220</v>
       </c>
       <c r="Z63" s="1">
@@ -6297,7 +6683,7 @@
       </c>
     </row>
     <row r="64" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A64" s="12">
+      <c r="A64" s="14">
         <v>43563</v>
       </c>
       <c r="B64" s="1">
@@ -6321,19 +6707,19 @@
       <c r="I64" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5">
-        <v>1</v>
-      </c>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="V64" s="20" t="s">
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7">
+        <v>1</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="V64" s="22" t="s">
         <v>223</v>
       </c>
       <c r="Z64" s="1">
@@ -6346,7 +6732,7 @@
       </c>
     </row>
     <row r="65" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A65" s="12">
+      <c r="A65" s="14">
         <v>43563</v>
       </c>
       <c r="B65" s="1">
@@ -6370,21 +6756,21 @@
       <c r="I65" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5">
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7">
         <v>2</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5">
-        <v>1</v>
-      </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="V65" s="20" t="s">
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7">
+        <v>1</v>
+      </c>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="V65" s="22" t="s">
         <v>226</v>
       </c>
       <c r="Z65" s="1">
@@ -6397,48 +6783,48 @@
       </c>
     </row>
     <row r="66" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A66" s="12">
+      <c r="A66" s="14">
         <v>43563</v>
       </c>
       <c r="B66" s="1">
         <v>7921317156</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E66" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="21" t="s">
+      <c r="E66" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="23" t="s">
         <v>228</v>
       </c>
       <c r="G66" s="1">
         <v>13960949789</v>
       </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="21" t="s">
+      <c r="H66" s="24"/>
+      <c r="I66" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="J66" s="5">
-        <v>1</v>
-      </c>
-      <c r="K66" s="5">
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+      <c r="K66" s="7">
         <v>8</v>
       </c>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5">
-        <v>1</v>
-      </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="X66" s="21"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7">
+        <v>1</v>
+      </c>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="X66" s="23"/>
       <c r="Z66" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6449,7 +6835,7 @@
       </c>
     </row>
     <row r="67" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A67" s="12">
+      <c r="A67" s="14">
         <v>43563</v>
       </c>
       <c r="B67" s="1">
@@ -6470,23 +6856,23 @@
       <c r="G67" s="1">
         <v>13978419895</v>
       </c>
-      <c r="H67" s="22"/>
+      <c r="H67" s="24"/>
       <c r="I67" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5">
-        <v>1</v>
-      </c>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="V67" s="20" t="s">
+      <c r="J67" s="7"/>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="V67" s="22" t="s">
         <v>233</v>
       </c>
       <c r="Z67" s="1">
@@ -6499,7 +6885,7 @@
       </c>
     </row>
     <row r="68" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A68" s="12">
+      <c r="A68" s="14">
         <v>43563</v>
       </c>
       <c r="B68" s="1">
@@ -6520,23 +6906,23 @@
       <c r="G68" s="1">
         <v>13910560859</v>
       </c>
-      <c r="H68" s="22"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5">
-        <v>1</v>
-      </c>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="V68" s="20" t="s">
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7">
+        <v>1</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="V68" s="22" t="s">
         <v>236</v>
       </c>
       <c r="Z68" s="1">
@@ -6549,7 +6935,7 @@
       </c>
     </row>
     <row r="69" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A69" s="12">
+      <c r="A69" s="14">
         <v>43563</v>
       </c>
       <c r="B69" s="1">
@@ -6570,25 +6956,25 @@
       <c r="G69" s="1">
         <v>13926802555</v>
       </c>
-      <c r="H69" s="22"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J69" s="5">
-        <v>1</v>
-      </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5">
-        <v>1</v>
-      </c>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="V69" s="20" t="s">
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="V69" s="22" t="s">
         <v>240</v>
       </c>
       <c r="Z69" s="1">
@@ -6601,7 +6987,7 @@
       </c>
     </row>
     <row r="70" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A70" s="12">
+      <c r="A70" s="14">
         <v>43563</v>
       </c>
       <c r="B70" s="1">
@@ -6622,25 +7008,25 @@
       <c r="G70" s="1">
         <v>15931530860</v>
       </c>
-      <c r="H70" s="22"/>
+      <c r="H70" s="24"/>
       <c r="I70" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5">
-        <v>1</v>
-      </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5">
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7">
+        <v>1</v>
+      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7">
         <v>2</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="V70" s="20" t="s">
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="V70" s="22" t="s">
         <v>243</v>
       </c>
       <c r="Z70" s="1">
@@ -6653,7 +7039,7 @@
       </c>
     </row>
     <row r="71" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A71" s="12">
+      <c r="A71" s="14">
         <v>43563</v>
       </c>
       <c r="B71" s="1">
@@ -6674,27 +7060,27 @@
       <c r="G71" s="1">
         <v>18650818018</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="7">
         <v>5</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="7">
         <v>3</v>
       </c>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5">
+      <c r="L71" s="7"/>
+      <c r="M71" s="7">
         <v>2</v>
       </c>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="V71" s="20" t="s">
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="V71" s="22" t="s">
         <v>247</v>
       </c>
       <c r="Z71" s="1">
@@ -6707,7 +7093,7 @@
       </c>
     </row>
     <row r="72" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A72" s="12">
+      <c r="A72" s="14">
         <v>43563</v>
       </c>
       <c r="B72" s="1">
@@ -6728,27 +7114,27 @@
       <c r="G72" s="1">
         <v>18125357690</v>
       </c>
-      <c r="H72" s="22"/>
+      <c r="H72" s="24"/>
       <c r="I72" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5">
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7">
         <v>2</v>
       </c>
-      <c r="N72" s="5">
-        <v>1</v>
-      </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5">
+      <c r="N72" s="7">
+        <v>1</v>
+      </c>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7">
         <v>3</v>
       </c>
-      <c r="S72" s="5"/>
-      <c r="V72" s="20" t="s">
+      <c r="S72" s="7"/>
+      <c r="V72" s="22" t="s">
         <v>250</v>
       </c>
       <c r="Z72" s="1">
@@ -6761,7 +7147,7 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A73" s="12">
+      <c r="A73" s="14">
         <v>43563</v>
       </c>
       <c r="B73" s="1">
@@ -6782,27 +7168,27 @@
       <c r="G73" s="1">
         <v>13680968118</v>
       </c>
-      <c r="H73" s="22"/>
+      <c r="H73" s="24"/>
       <c r="I73" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="7">
         <v>5</v>
       </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7">
         <v>5</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="7">
         <v>3</v>
       </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="V73" s="20" t="s">
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="V73" s="22" t="s">
         <v>251</v>
       </c>
       <c r="Z73" s="1">
@@ -6815,7 +7201,7 @@
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="12.95" hidden="1" customHeight="1" spans="1:27">
-      <c r="A74" s="12">
+      <c r="A74" s="14">
         <v>43563</v>
       </c>
       <c r="B74" s="1">
@@ -6836,25 +7222,25 @@
       <c r="G74" s="1">
         <v>15510105483</v>
       </c>
-      <c r="H74" s="22"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5">
-        <v>1</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5">
-        <v>1</v>
-      </c>
-      <c r="S74" s="5"/>
-      <c r="V74" s="20" t="s">
+      <c r="J74" s="7"/>
+      <c r="K74" s="7">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7">
+        <v>1</v>
+      </c>
+      <c r="S74" s="7"/>
+      <c r="V74" s="22" t="s">
         <v>254</v>
       </c>
       <c r="Z74" s="1">
@@ -6867,7 +7253,7 @@
       </c>
     </row>
     <row r="75" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A75" s="12">
+      <c r="A75" s="14">
         <v>43563</v>
       </c>
       <c r="B75" s="1">
@@ -6888,27 +7274,27 @@
       <c r="G75" s="1">
         <v>18757645542</v>
       </c>
-      <c r="H75" s="22"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="7">
         <v>4</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="7">
         <v>5</v>
       </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5">
-        <v>1</v>
-      </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="V75" s="20" t="s">
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="V75" s="22" t="s">
         <v>257</v>
       </c>
       <c r="Z75" s="1">
@@ -6921,7 +7307,7 @@
       </c>
     </row>
     <row r="76" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A76" s="12">
+      <c r="A76" s="14">
         <v>43563</v>
       </c>
       <c r="B76" s="1">
@@ -6942,25 +7328,25 @@
       <c r="G76" s="1">
         <v>17686252660</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="24">
         <v>3.70982199811044e+17</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J76" s="5">
-        <v>1</v>
-      </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="V76" s="20" t="s">
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="V76" s="22" t="s">
         <v>260</v>
       </c>
       <c r="X76" s="2"/>
@@ -6974,7 +7360,7 @@
       </c>
     </row>
     <row r="77" s="2" customFormat="1" hidden="1" spans="1:27">
-      <c r="A77" s="23">
+      <c r="A77" s="25">
         <v>43563</v>
       </c>
       <c r="B77" s="2">
@@ -6995,24 +7381,24 @@
       <c r="G77" s="1">
         <v>13680968118</v>
       </c>
-      <c r="H77" s="22"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
       <c r="U77" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="W77" s="20" t="s">
+      <c r="W77" s="22" t="s">
         <v>262</v>
       </c>
       <c r="X77" s="1"/>
@@ -7026,7 +7412,7 @@
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="42.75" hidden="1" spans="1:27">
-      <c r="A78" s="23">
+      <c r="A78" s="25">
         <v>43563</v>
       </c>
       <c r="B78" s="1">
@@ -7047,31 +7433,31 @@
       <c r="G78" s="1">
         <v>13862099690</v>
       </c>
-      <c r="H78" s="22"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5">
+      <c r="J78" s="7"/>
+      <c r="K78" s="7">
         <v>20</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="7">
         <v>5</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>5</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N78" s="7">
         <v>5</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5">
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7">
         <v>5</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="V78" s="15" t="s">
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="V78" s="17" t="s">
         <v>265</v>
       </c>
       <c r="Z78" s="1">
@@ -7084,7 +7470,7 @@
       </c>
     </row>
     <row r="79" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A79" s="23">
+      <c r="A79" s="25">
         <v>43563</v>
       </c>
       <c r="B79" s="1">
@@ -7105,29 +7491,29 @@
       <c r="G79" s="1">
         <v>13102855886</v>
       </c>
-      <c r="H79" s="22"/>
+      <c r="H79" s="24"/>
       <c r="I79" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J79" s="5">
-        <v>1</v>
-      </c>
-      <c r="K79" s="5">
+      <c r="J79" s="7">
+        <v>1</v>
+      </c>
+      <c r="K79" s="7">
         <v>3</v>
       </c>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5">
-        <v>1</v>
-      </c>
-      <c r="R79" s="5">
-        <v>1</v>
-      </c>
-      <c r="S79" s="5"/>
-      <c r="V79" s="20" t="s">
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7">
+        <v>1</v>
+      </c>
+      <c r="R79" s="7">
+        <v>1</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="V79" s="22" t="s">
         <v>269</v>
       </c>
       <c r="Z79" s="1">
@@ -7140,7 +7526,7 @@
       </c>
     </row>
     <row r="80" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A80" s="23">
+      <c r="A80" s="25">
         <v>43563</v>
       </c>
       <c r="B80" s="1">
@@ -7161,25 +7547,25 @@
       <c r="G80" s="1">
         <v>13973706089</v>
       </c>
-      <c r="H80" s="22"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5">
+      <c r="J80" s="7"/>
+      <c r="K80" s="7">
         <v>4</v>
       </c>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5">
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7">
         <v>2</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="V80" s="20" t="s">
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="V80" s="22" t="s">
         <v>271</v>
       </c>
       <c r="Z80" s="1">
@@ -7192,7 +7578,7 @@
       </c>
     </row>
     <row r="81" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A81" s="23">
+      <c r="A81" s="25">
         <v>43563</v>
       </c>
       <c r="B81" s="1">
@@ -7213,23 +7599,23 @@
       <c r="G81" s="1">
         <v>15084031999</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5">
-        <v>1</v>
-      </c>
-      <c r="S81" s="5"/>
-      <c r="V81" s="20" t="s">
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <v>1</v>
+      </c>
+      <c r="S81" s="7"/>
+      <c r="V81" s="22" t="s">
         <v>274</v>
       </c>
       <c r="Z81" s="1">
@@ -7242,7 +7628,7 @@
       </c>
     </row>
     <row r="82" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A82" s="23">
+      <c r="A82" s="25">
         <v>43563</v>
       </c>
       <c r="B82" s="1">
@@ -7263,27 +7649,27 @@
       <c r="G82" s="1">
         <v>18580436883</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="24">
         <v>5.00231198601173e+17</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
       <c r="U82" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20" t="s">
+      <c r="V82" s="22"/>
+      <c r="W82" s="22" t="s">
         <v>279</v>
       </c>
       <c r="Z82" s="1">
@@ -7296,7 +7682,7 @@
       </c>
     </row>
     <row r="83" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A83" s="23">
+      <c r="A83" s="25">
         <v>43563</v>
       </c>
       <c r="B83" s="1">
@@ -7320,19 +7706,19 @@
       <c r="I83" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5">
-        <v>1</v>
-      </c>
-      <c r="S83" s="5"/>
-      <c r="V83" s="20" t="s">
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <v>1</v>
+      </c>
+      <c r="S83" s="7"/>
+      <c r="V83" s="22" t="s">
         <v>281</v>
       </c>
       <c r="Z83" s="1">
@@ -7345,7 +7731,7 @@
       </c>
     </row>
     <row r="84" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A84" s="23">
+      <c r="A84" s="25">
         <v>43563</v>
       </c>
       <c r="B84" s="1">
@@ -7369,19 +7755,19 @@
       <c r="I84" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5">
+      <c r="J84" s="7"/>
+      <c r="K84" s="7">
         <v>2</v>
       </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="V84" s="20" t="s">
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="V84" s="22" t="s">
         <v>281</v>
       </c>
       <c r="Z84" s="1">
@@ -7394,7 +7780,7 @@
       </c>
     </row>
     <row r="85" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A85" s="23">
+      <c r="A85" s="25">
         <v>43563</v>
       </c>
       <c r="B85" s="1">
@@ -7418,19 +7804,19 @@
       <c r="I85" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5">
+      <c r="J85" s="7"/>
+      <c r="K85" s="7">
         <v>2</v>
       </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="V85" s="20" t="s">
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="V85" s="22" t="s">
         <v>286</v>
       </c>
       <c r="Z85" s="1">
@@ -7443,7 +7829,7 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A86" s="23">
+      <c r="A86" s="25">
         <v>43563</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -7464,19 +7850,19 @@
       <c r="I86" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="V86" s="20" t="s">
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="V86" s="22" t="s">
         <v>289</v>
       </c>
       <c r="Z86" s="1">
@@ -7489,7 +7875,7 @@
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="57" hidden="1" spans="1:27">
-      <c r="A87" s="12">
+      <c r="A87" s="14">
         <v>43564</v>
       </c>
       <c r="B87" s="1">
@@ -7513,25 +7899,25 @@
       <c r="I87" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="7">
         <v>14</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="7">
         <v>10</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="7">
         <v>10</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="7">
         <v>10</v>
       </c>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="V87" s="15" t="s">
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="V87" s="17" t="s">
         <v>290</v>
       </c>
       <c r="Z87" s="1">
@@ -7544,7 +7930,7 @@
       </c>
     </row>
     <row r="88" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A88" s="12">
+      <c r="A88" s="14">
         <v>43564</v>
       </c>
       <c r="B88" s="1">
@@ -7568,18 +7954,18 @@
       <c r="I88" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J88" s="5">
-        <v>1</v>
-      </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
+      <c r="J88" s="7">
+        <v>1</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
       <c r="Z88" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7590,7 +7976,7 @@
       </c>
     </row>
     <row r="89" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A89" s="12">
+      <c r="A89" s="14">
         <v>43564</v>
       </c>
       <c r="B89" s="1">
@@ -7614,18 +8000,18 @@
       <c r="I89" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5">
-        <v>1</v>
-      </c>
-      <c r="S89" s="5"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7">
+        <v>1</v>
+      </c>
+      <c r="S89" s="7"/>
       <c r="Z89" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7636,7 +8022,7 @@
       </c>
     </row>
     <row r="90" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A90" s="12">
+      <c r="A90" s="14">
         <v>43564</v>
       </c>
       <c r="B90" s="1">
@@ -7660,18 +8046,18 @@
       <c r="I90" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="7">
         <v>2</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
       <c r="Z90" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -7682,7 +8068,7 @@
       </c>
     </row>
     <row r="91" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A91" s="12">
+      <c r="A91" s="14">
         <v>43564</v>
       </c>
       <c r="B91" s="1">
@@ -7706,24 +8092,24 @@
       <c r="I91" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="7">
         <v>10</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="7">
         <v>5</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="7">
         <v>2</v>
       </c>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5">
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7">
         <v>5</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
       <c r="Z91" s="1">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -7734,7 +8120,7 @@
       </c>
     </row>
     <row r="92" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A92" s="12">
+      <c r="A92" s="14">
         <v>43564</v>
       </c>
       <c r="B92" s="1">
@@ -7758,18 +8144,18 @@
       <c r="I92" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5">
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7">
         <v>2</v>
       </c>
-      <c r="S92" s="5"/>
+      <c r="S92" s="7"/>
       <c r="Z92" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -7780,7 +8166,7 @@
       </c>
     </row>
     <row r="93" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A93" s="12">
+      <c r="A93" s="14">
         <v>43565</v>
       </c>
       <c r="B93" s="1">
@@ -7801,22 +8187,22 @@
       <c r="G93" s="1">
         <v>15800044511</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3" t="s">
+      <c r="H93" s="5"/>
+      <c r="I93" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5">
-        <v>1</v>
-      </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7">
+        <v>1</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
       <c r="Z93" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7827,7 +8213,7 @@
       </c>
     </row>
     <row r="94" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A94" s="12">
+      <c r="A94" s="14">
         <v>43565</v>
       </c>
       <c r="B94" s="1">
@@ -7848,22 +8234,22 @@
       <c r="G94" s="1">
         <v>13838610060</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3" t="s">
+      <c r="H94" s="5"/>
+      <c r="I94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J94" s="5">
-        <v>1</v>
-      </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
       <c r="Z94" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7874,7 +8260,7 @@
       </c>
     </row>
     <row r="95" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A95" s="12">
+      <c r="A95" s="14">
         <v>43565</v>
       </c>
       <c r="B95" s="1">
@@ -7895,22 +8281,22 @@
       <c r="G95" s="1">
         <v>13589264866</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3" t="s">
+      <c r="H95" s="5"/>
+      <c r="I95" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5">
+      <c r="J95" s="7"/>
+      <c r="K95" s="7">
         <v>2</v>
       </c>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
       <c r="Z95" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -7921,7 +8307,7 @@
       </c>
     </row>
     <row r="96" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A96" s="12">
+      <c r="A96" s="14">
         <v>43565</v>
       </c>
       <c r="B96" s="1">
@@ -7942,23 +8328,23 @@
       <c r="G96" s="1">
         <v>13934280555</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3" t="s">
+      <c r="H96" s="5"/>
+      <c r="I96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5">
-        <v>1</v>
-      </c>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="U96" s="18"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7">
+        <v>1</v>
+      </c>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="U96" s="20"/>
       <c r="Z96" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -7969,7 +8355,7 @@
       </c>
     </row>
     <row r="97" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A97" s="12">
+      <c r="A97" s="14">
         <v>43565</v>
       </c>
       <c r="B97" s="1">
@@ -7990,34 +8376,34 @@
       <c r="G97" s="1">
         <v>13922021124</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3" t="s">
+      <c r="H97" s="5"/>
+      <c r="I97" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="7">
         <v>4</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="7">
         <v>4</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="7">
         <v>3</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>3</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N97" s="7">
         <v>2</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O97" s="7">
         <v>2</v>
       </c>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5">
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7">
         <v>2</v>
       </c>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
       <c r="Z97" s="1">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -8028,7 +8414,7 @@
       </c>
     </row>
     <row r="98" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A98" s="12">
+      <c r="A98" s="14">
         <v>43565</v>
       </c>
       <c r="B98" s="1">
@@ -8049,22 +8435,22 @@
       <c r="G98" s="1">
         <v>13599991255</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3" t="s">
+      <c r="H98" s="5"/>
+      <c r="I98" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5">
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7">
         <v>2</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
       <c r="Z98" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8075,7 +8461,7 @@
       </c>
     </row>
     <row r="99" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A99" s="12">
+      <c r="A99" s="14">
         <v>43565</v>
       </c>
       <c r="B99" s="1">
@@ -8096,24 +8482,24 @@
       <c r="G99" s="1">
         <v>13599418013</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3" t="s">
+      <c r="H99" s="5"/>
+      <c r="I99" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5">
-        <v>1</v>
-      </c>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5">
-        <v>1</v>
-      </c>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7">
+        <v>1</v>
+      </c>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7">
+        <v>1</v>
+      </c>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
       <c r="Z99" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8124,7 +8510,7 @@
       </c>
     </row>
     <row r="100" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A100" s="12">
+      <c r="A100" s="14">
         <v>43566</v>
       </c>
       <c r="B100" s="1">
@@ -8145,22 +8531,22 @@
       <c r="G100" s="1">
         <v>18851459259</v>
       </c>
-      <c r="H100" s="24"/>
+      <c r="H100" s="26"/>
       <c r="I100" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5">
-        <v>1</v>
-      </c>
-      <c r="S100" s="5"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7">
+        <v>1</v>
+      </c>
+      <c r="S100" s="7"/>
       <c r="Z100" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8171,7 +8557,7 @@
       </c>
     </row>
     <row r="101" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A101" s="12">
+      <c r="A101" s="14">
         <v>43566</v>
       </c>
       <c r="B101" s="1">
@@ -8192,22 +8578,22 @@
       <c r="G101" s="1">
         <v>16643511516</v>
       </c>
-      <c r="H101" s="24"/>
+      <c r="H101" s="26"/>
       <c r="I101" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
       <c r="Z101" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8218,7 +8604,7 @@
       </c>
     </row>
     <row r="102" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A102" s="12">
+      <c r="A102" s="14">
         <v>43566</v>
       </c>
       <c r="B102" s="1">
@@ -8239,22 +8625,22 @@
       <c r="G102" s="1">
         <v>15826540213</v>
       </c>
-      <c r="H102" s="24"/>
+      <c r="H102" s="26"/>
       <c r="I102" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5">
+      <c r="J102" s="7"/>
+      <c r="K102" s="7">
         <v>2</v>
       </c>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
       <c r="Z102" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8265,7 +8651,7 @@
       </c>
     </row>
     <row r="103" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A103" s="12">
+      <c r="A103" s="14">
         <v>43566</v>
       </c>
       <c r="B103" s="1">
@@ -8286,22 +8672,22 @@
       <c r="G103" s="1">
         <v>18576747520</v>
       </c>
-      <c r="H103" s="24"/>
+      <c r="H103" s="26"/>
       <c r="I103" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5">
-        <v>1</v>
-      </c>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7">
+        <v>1</v>
+      </c>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
       <c r="Z103" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8312,7 +8698,7 @@
       </c>
     </row>
     <row r="104" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A104" s="12">
+      <c r="A104" s="14">
         <v>43566</v>
       </c>
       <c r="B104" s="1">
@@ -8333,26 +8719,26 @@
       <c r="G104" s="1">
         <v>13605356612</v>
       </c>
-      <c r="H104" s="24"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="7">
         <v>2</v>
       </c>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5">
+      <c r="K104" s="7"/>
+      <c r="L104" s="7">
         <v>2</v>
       </c>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5">
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7">
         <v>2</v>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
       <c r="Z104" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -8363,7 +8749,7 @@
       </c>
     </row>
     <row r="105" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A105" s="12">
+      <c r="A105" s="14">
         <v>43566</v>
       </c>
       <c r="B105" s="1">
@@ -8384,22 +8770,22 @@
       <c r="G105" s="1">
         <v>18851459259</v>
       </c>
-      <c r="H105" s="24"/>
+      <c r="H105" s="26"/>
       <c r="I105" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5">
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7">
         <v>2</v>
       </c>
-      <c r="S105" s="5"/>
+      <c r="S105" s="7"/>
       <c r="Z105" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8410,7 +8796,7 @@
       </c>
     </row>
     <row r="106" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A106" s="12">
+      <c r="A106" s="14">
         <v>43566</v>
       </c>
       <c r="B106" s="1">
@@ -8431,22 +8817,22 @@
       <c r="G106" s="1">
         <v>15754056497</v>
       </c>
-      <c r="H106" s="24"/>
+      <c r="H106" s="26"/>
       <c r="I106" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5">
-        <v>1</v>
-      </c>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7">
+        <v>1</v>
+      </c>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
       <c r="Z106" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8457,7 +8843,7 @@
       </c>
     </row>
     <row r="107" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A107" s="12">
+      <c r="A107" s="14">
         <v>43566</v>
       </c>
       <c r="B107" s="1">
@@ -8478,22 +8864,22 @@
       <c r="G107" s="1">
         <v>15560191916</v>
       </c>
-      <c r="H107" s="25">
+      <c r="H107" s="27">
         <v>4.10727199304201e+17</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
       <c r="U107" s="1" t="s">
         <v>320</v>
       </c>
@@ -8507,7 +8893,7 @@
       </c>
     </row>
     <row r="108" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A108" s="12">
+      <c r="A108" s="14">
         <v>43566</v>
       </c>
       <c r="B108" s="1">
@@ -8531,18 +8917,18 @@
       <c r="I108" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J108" s="5">
-        <v>1</v>
-      </c>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
+      <c r="J108" s="7">
+        <v>1</v>
+      </c>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
       <c r="Z108" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8553,7 +8939,7 @@
       </c>
     </row>
     <row r="109" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A109" s="12">
+      <c r="A109" s="14">
         <v>43566</v>
       </c>
       <c r="B109" s="1">
@@ -8577,18 +8963,18 @@
       <c r="I109" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5">
-        <v>1</v>
-      </c>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7">
+        <v>1</v>
+      </c>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
       <c r="Z109" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -8599,7 +8985,7 @@
       </c>
     </row>
     <row r="110" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A110" s="12">
+      <c r="A110" s="14">
         <v>43566</v>
       </c>
       <c r="B110" s="1">
@@ -8623,18 +9009,18 @@
       <c r="I110" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5">
+      <c r="J110" s="7"/>
+      <c r="K110" s="7">
         <v>2</v>
       </c>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
       <c r="Z110" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8645,7 +9031,7 @@
       </c>
     </row>
     <row r="111" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A111" s="12">
+      <c r="A111" s="14">
         <v>43566</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -8663,20 +9049,20 @@
       <c r="G111" s="1">
         <v>15989866517</v>
       </c>
-      <c r="H111" s="24"/>
+      <c r="H111" s="26"/>
       <c r="I111" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
       <c r="Z111" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8687,7 +9073,7 @@
       </c>
     </row>
     <row r="112" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A112" s="12">
+      <c r="A112" s="14">
         <v>43566</v>
       </c>
       <c r="B112" s="1">
@@ -8711,24 +9097,24 @@
       <c r="I112" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="7">
         <v>15</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112" s="7">
         <v>15</v>
       </c>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5">
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7">
         <v>2</v>
       </c>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5">
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7">
         <v>2</v>
       </c>
-      <c r="S112" s="5"/>
+      <c r="S112" s="7"/>
       <c r="Z112" s="1">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -8739,7 +9125,7 @@
       </c>
     </row>
     <row r="113" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A113" s="12">
+      <c r="A113" s="14">
         <v>43566</v>
       </c>
       <c r="B113" s="1">
@@ -8763,20 +9149,20 @@
       <c r="I113" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5">
-        <v>1</v>
-      </c>
-      <c r="L113" s="5">
-        <v>1</v>
-      </c>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7">
+        <v>1</v>
+      </c>
+      <c r="L113" s="7">
+        <v>1</v>
+      </c>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
       <c r="Z113" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8787,7 +9173,7 @@
       </c>
     </row>
     <row r="114" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A114" s="12">
+      <c r="A114" s="14">
         <v>43567</v>
       </c>
       <c r="B114" s="1">
@@ -8808,26 +9194,26 @@
       <c r="G114" s="1">
         <v>13707545003</v>
       </c>
-      <c r="H114" s="4"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="7">
         <v>3</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114" s="7">
         <v>3</v>
       </c>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5">
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7">
         <v>6</v>
       </c>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
       <c r="Z114" s="1">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -8838,7 +9224,7 @@
       </c>
     </row>
     <row r="115" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A115" s="12">
+      <c r="A115" s="14">
         <v>43567</v>
       </c>
       <c r="B115" s="1">
@@ -8859,22 +9245,22 @@
       <c r="G115" s="1">
         <v>13632369030</v>
       </c>
-      <c r="H115" s="4"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="7">
         <v>10</v>
       </c>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
       <c r="Z115" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -8885,7 +9271,7 @@
       </c>
     </row>
     <row r="116" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A116" s="12">
+      <c r="A116" s="14">
         <v>43567</v>
       </c>
       <c r="B116" s="1">
@@ -8906,20 +9292,20 @@
       <c r="G116" s="1">
         <v>18857092661</v>
       </c>
-      <c r="H116" s="4"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
       <c r="U116" s="1" t="s">
         <v>261</v>
       </c>
@@ -8933,7 +9319,7 @@
       </c>
     </row>
     <row r="117" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A117" s="12">
+      <c r="A117" s="14">
         <v>43567</v>
       </c>
       <c r="B117" s="1">
@@ -8954,24 +9340,24 @@
       <c r="G117" s="1">
         <v>18857092661</v>
       </c>
-      <c r="H117" s="4"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="J117" s="5">
-        <v>1</v>
-      </c>
-      <c r="K117" s="5">
-        <v>1</v>
-      </c>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
+      <c r="J117" s="7">
+        <v>1</v>
+      </c>
+      <c r="K117" s="7">
+        <v>1</v>
+      </c>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
       <c r="Z117" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -8982,7 +9368,7 @@
       </c>
     </row>
     <row r="118" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A118" s="12">
+      <c r="A118" s="14">
         <v>43567</v>
       </c>
       <c r="B118" s="1">
@@ -9003,24 +9389,24 @@
       <c r="G118" s="1">
         <v>15824472588</v>
       </c>
-      <c r="H118" s="4"/>
+      <c r="H118" s="6"/>
       <c r="I118" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5">
-        <v>1</v>
-      </c>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5">
-        <v>1</v>
-      </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7">
+        <v>1</v>
+      </c>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7">
+        <v>1</v>
+      </c>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
       <c r="Z118" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -9031,7 +9417,7 @@
       </c>
     </row>
     <row r="119" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A119" s="12">
+      <c r="A119" s="14">
         <v>43567</v>
       </c>
       <c r="B119" s="1">
@@ -9052,20 +9438,20 @@
       <c r="G119" s="1">
         <v>19919871250</v>
       </c>
-      <c r="H119" s="4"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
       <c r="U119" s="1" t="s">
         <v>344</v>
       </c>
@@ -9079,7 +9465,7 @@
       </c>
     </row>
     <row r="120" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A120" s="12">
+      <c r="A120" s="14">
         <v>43567</v>
       </c>
       <c r="B120" s="1">
@@ -9100,26 +9486,26 @@
       <c r="G120" s="1">
         <v>13599991255</v>
       </c>
-      <c r="H120" s="4"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="7">
         <v>2</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120" s="7">
         <v>2</v>
       </c>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5">
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7">
         <v>2</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
       <c r="Z120" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -9130,7 +9516,7 @@
       </c>
     </row>
     <row r="121" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A121" s="12">
+      <c r="A121" s="14">
         <v>43567</v>
       </c>
       <c r="B121" s="1">
@@ -9145,28 +9531,28 @@
       <c r="E121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F121" s="26" t="s">
+      <c r="F121" s="28" t="s">
         <v>345</v>
       </c>
       <c r="G121" s="1">
         <v>13861367431</v>
       </c>
-      <c r="H121" s="4"/>
-      <c r="I121" s="26" t="s">
+      <c r="H121" s="6"/>
+      <c r="I121" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5">
-        <v>1</v>
-      </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7">
+        <v>1</v>
+      </c>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
       <c r="Z121" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9177,7 +9563,7 @@
       </c>
     </row>
     <row r="122" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A122" s="12">
+      <c r="A122" s="14">
         <v>43567</v>
       </c>
       <c r="B122" s="1">
@@ -9198,36 +9584,36 @@
       <c r="G122" s="1">
         <v>18601239906</v>
       </c>
-      <c r="H122" s="4"/>
+      <c r="H122" s="6"/>
       <c r="I122" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122" s="7">
         <v>2</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122" s="7">
         <v>2</v>
       </c>
-      <c r="L122" s="5">
-        <v>1</v>
-      </c>
-      <c r="M122" s="5">
-        <v>1</v>
-      </c>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5">
-        <v>1</v>
-      </c>
-      <c r="P122" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="5">
-        <v>1</v>
-      </c>
-      <c r="R122" s="5">
-        <v>1</v>
-      </c>
-      <c r="S122" s="5"/>
+      <c r="L122" s="7">
+        <v>1</v>
+      </c>
+      <c r="M122" s="7">
+        <v>1</v>
+      </c>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7">
+        <v>1</v>
+      </c>
+      <c r="P122" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>1</v>
+      </c>
+      <c r="R122" s="7">
+        <v>1</v>
+      </c>
+      <c r="S122" s="7"/>
       <c r="Z122" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -9238,7 +9624,7 @@
       </c>
     </row>
     <row r="123" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A123" s="12">
+      <c r="A123" s="14">
         <v>43567</v>
       </c>
       <c r="B123" s="1">
@@ -9259,22 +9645,22 @@
       <c r="G123" s="1">
         <v>15041139822</v>
       </c>
-      <c r="H123" s="4"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
       <c r="Z123" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9285,7 +9671,7 @@
       </c>
     </row>
     <row r="124" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A124" s="12">
+      <c r="A124" s="14">
         <v>43567</v>
       </c>
       <c r="B124" s="1">
@@ -9306,20 +9692,20 @@
       <c r="G124" s="1">
         <v>13724989834</v>
       </c>
-      <c r="H124" s="4"/>
+      <c r="H124" s="6"/>
       <c r="I124" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
       <c r="U124" s="1" t="s">
         <v>351</v>
       </c>
@@ -9333,7 +9719,7 @@
       </c>
     </row>
     <row r="125" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A125" s="12">
+      <c r="A125" s="14">
         <v>43567</v>
       </c>
       <c r="B125" s="1">
@@ -9354,24 +9740,24 @@
       <c r="G125" s="1">
         <v>13724989834</v>
       </c>
-      <c r="H125" s="4"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5">
-        <v>1</v>
-      </c>
-      <c r="L125" s="5">
-        <v>1</v>
-      </c>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7">
+        <v>1</v>
+      </c>
+      <c r="L125" s="7">
+        <v>1</v>
+      </c>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
       <c r="Z125" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -9382,7 +9768,7 @@
       </c>
     </row>
     <row r="126" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A126" s="12">
+      <c r="A126" s="14">
         <v>43567</v>
       </c>
       <c r="B126" s="1">
@@ -9403,20 +9789,20 @@
       <c r="G126" s="1">
         <v>13887509992</v>
       </c>
-      <c r="H126" s="4"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
       <c r="U126" s="1" t="s">
         <v>278</v>
       </c>
@@ -9430,7 +9816,7 @@
       </c>
     </row>
     <row r="127" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A127" s="12">
+      <c r="A127" s="14">
         <v>43567</v>
       </c>
       <c r="B127" s="1">
@@ -9451,30 +9837,30 @@
       <c r="G127" s="1">
         <v>13887509493</v>
       </c>
-      <c r="H127" s="4"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J127" s="5">
+      <c r="J127" s="7">
         <v>2</v>
       </c>
-      <c r="K127" s="5">
+      <c r="K127" s="7">
         <v>2</v>
       </c>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5">
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7">
         <v>3</v>
       </c>
-      <c r="Q127" s="5">
+      <c r="Q127" s="7">
         <v>3</v>
       </c>
-      <c r="R127" s="5">
-        <v>1</v>
-      </c>
-      <c r="S127" s="5"/>
+      <c r="R127" s="7">
+        <v>1</v>
+      </c>
+      <c r="S127" s="7"/>
       <c r="Z127" s="1">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -9485,7 +9871,7 @@
       </c>
     </row>
     <row r="128" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A128" s="12">
+      <c r="A128" s="14">
         <v>43567</v>
       </c>
       <c r="B128" s="1">
@@ -9506,22 +9892,22 @@
       <c r="G128" s="1">
         <v>13887509493</v>
       </c>
-      <c r="H128" s="4"/>
+      <c r="H128" s="6"/>
       <c r="I128" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5">
-        <v>1</v>
-      </c>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7">
+        <v>1</v>
+      </c>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
       <c r="Z128" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9532,7 +9918,7 @@
       </c>
     </row>
     <row r="129" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A129" s="12">
+      <c r="A129" s="14">
         <v>43567</v>
       </c>
       <c r="B129" s="1">
@@ -9553,22 +9939,22 @@
       <c r="G129" s="1">
         <v>15087725235</v>
       </c>
-      <c r="H129" s="4"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5">
-        <v>1</v>
-      </c>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7">
+        <v>1</v>
+      </c>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="7"/>
       <c r="Z129" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9579,7 +9965,7 @@
       </c>
     </row>
     <row r="130" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A130" s="12">
+      <c r="A130" s="14">
         <v>43568</v>
       </c>
       <c r="B130" s="1">
@@ -9600,22 +9986,22 @@
       <c r="G130" s="1">
         <v>15207962454</v>
       </c>
-      <c r="H130" s="4"/>
+      <c r="H130" s="6"/>
       <c r="I130" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J130" s="5">
-        <v>1</v>
-      </c>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
+      <c r="J130" s="7">
+        <v>1</v>
+      </c>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
       <c r="Z130" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9626,7 +10012,7 @@
       </c>
     </row>
     <row r="131" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A131" s="12">
+      <c r="A131" s="14">
         <v>43568</v>
       </c>
       <c r="B131" s="1">
@@ -9647,26 +10033,26 @@
       <c r="G131" s="1">
         <v>13704112003</v>
       </c>
-      <c r="H131" s="4"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J131" s="7">
         <v>4</v>
       </c>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5">
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7">
         <v>4</v>
       </c>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5">
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7">
         <v>2</v>
       </c>
-      <c r="S131" s="5"/>
+      <c r="S131" s="7"/>
       <c r="Z131" s="1">
         <f t="shared" ref="Z131:Z169" si="8">SUM(J131:R131)</f>
         <v>10</v>
@@ -9677,7 +10063,7 @@
       </c>
     </row>
     <row r="132" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A132" s="12">
+      <c r="A132" s="14">
         <v>43568</v>
       </c>
       <c r="B132" s="1">
@@ -9698,28 +10084,28 @@
       <c r="G132" s="1">
         <v>13489063369</v>
       </c>
-      <c r="H132" s="4"/>
+      <c r="H132" s="6"/>
       <c r="I132" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="J132" s="5">
+      <c r="J132" s="7">
         <v>5</v>
       </c>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5">
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7">
         <v>2</v>
       </c>
-      <c r="O132" s="5">
-        <v>1</v>
-      </c>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5">
+      <c r="O132" s="7">
+        <v>1</v>
+      </c>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7">
         <v>2</v>
       </c>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="7"/>
       <c r="Z132" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -9730,7 +10116,7 @@
       </c>
     </row>
     <row r="133" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A133" s="12">
+      <c r="A133" s="14">
         <v>43568</v>
       </c>
       <c r="B133" s="1">
@@ -9751,24 +10137,24 @@
       <c r="G133" s="1">
         <v>13177777058</v>
       </c>
-      <c r="H133" s="4"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J133" s="5">
+      <c r="J133" s="7">
         <v>3</v>
       </c>
-      <c r="K133" s="5">
+      <c r="K133" s="7">
         <v>7</v>
       </c>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
-      <c r="Q133" s="5"/>
-      <c r="R133" s="5"/>
-      <c r="S133" s="5"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="7"/>
       <c r="Z133" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -9779,7 +10165,7 @@
       </c>
     </row>
     <row r="134" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A134" s="12">
+      <c r="A134" s="14">
         <v>43568</v>
       </c>
       <c r="B134" s="1">
@@ -9800,24 +10186,24 @@
       <c r="G134" s="1">
         <v>13823297981</v>
       </c>
-      <c r="H134" s="4"/>
+      <c r="H134" s="6"/>
       <c r="I134" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J134" s="5">
-        <v>1</v>
-      </c>
-      <c r="K134" s="5">
-        <v>1</v>
-      </c>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
+      <c r="J134" s="7">
+        <v>1</v>
+      </c>
+      <c r="K134" s="7">
+        <v>1</v>
+      </c>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
       <c r="Z134" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -9828,7 +10214,7 @@
       </c>
     </row>
     <row r="135" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A135" s="12">
+      <c r="A135" s="14">
         <v>43568</v>
       </c>
       <c r="B135" s="1">
@@ -9849,22 +10235,22 @@
       <c r="G135" s="1">
         <v>13833511795</v>
       </c>
-      <c r="H135" s="4"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J135" s="5">
-        <v>1</v>
-      </c>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
+      <c r="J135" s="7">
+        <v>1</v>
+      </c>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
       <c r="Z135" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9875,7 +10261,7 @@
       </c>
     </row>
     <row r="136" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A136" s="12">
+      <c r="A136" s="14">
         <v>43570</v>
       </c>
       <c r="B136" s="1">
@@ -9896,22 +10282,22 @@
       <c r="G136" s="1">
         <v>13853837300</v>
       </c>
-      <c r="H136" s="4"/>
+      <c r="H136" s="6"/>
       <c r="I136" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5">
-        <v>1</v>
-      </c>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7">
+        <v>1</v>
+      </c>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
       <c r="Z136" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -9922,7 +10308,7 @@
       </c>
     </row>
     <row r="137" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A137" s="12">
+      <c r="A137" s="14">
         <v>43570</v>
       </c>
       <c r="B137" s="1">
@@ -9943,22 +10329,22 @@
       <c r="G137" s="1">
         <v>18935930373</v>
       </c>
-      <c r="H137" s="4"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5">
+      <c r="J137" s="7"/>
+      <c r="K137" s="7">
         <v>2</v>
       </c>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
       <c r="Z137" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -9969,7 +10355,7 @@
       </c>
     </row>
     <row r="138" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A138" s="12">
+      <c r="A138" s="14">
         <v>43570</v>
       </c>
       <c r="B138" s="1">
@@ -9990,30 +10376,30 @@
       <c r="G138" s="1">
         <v>13720826093</v>
       </c>
-      <c r="H138" s="4"/>
+      <c r="H138" s="6"/>
       <c r="I138" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5">
+      <c r="J138" s="7"/>
+      <c r="K138" s="7">
         <v>2</v>
       </c>
-      <c r="L138" s="5">
-        <v>1</v>
-      </c>
-      <c r="M138" s="5">
-        <v>1</v>
-      </c>
-      <c r="N138" s="5">
+      <c r="L138" s="7">
+        <v>1</v>
+      </c>
+      <c r="M138" s="7">
+        <v>1</v>
+      </c>
+      <c r="N138" s="7">
         <v>2</v>
       </c>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5">
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7">
         <v>4</v>
       </c>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
       <c r="Z138" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -10024,7 +10410,7 @@
       </c>
     </row>
     <row r="139" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A139" s="12">
+      <c r="A139" s="14">
         <v>43570</v>
       </c>
       <c r="B139" s="1">
@@ -10045,26 +10431,26 @@
       <c r="G139" s="1">
         <v>18785617866</v>
       </c>
-      <c r="H139" s="4"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J139" s="5">
-        <v>1</v>
-      </c>
-      <c r="K139" s="5">
+      <c r="J139" s="7">
+        <v>1</v>
+      </c>
+      <c r="K139" s="7">
         <v>5</v>
       </c>
-      <c r="L139" s="5">
-        <v>1</v>
-      </c>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
+      <c r="L139" s="7">
+        <v>1</v>
+      </c>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="7"/>
       <c r="Z139" s="1">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -10075,7 +10461,7 @@
       </c>
     </row>
     <row r="140" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A140" s="12">
+      <c r="A140" s="14">
         <v>43570</v>
       </c>
       <c r="B140" s="1">
@@ -10096,22 +10482,22 @@
       <c r="G140" s="1">
         <v>13489063369</v>
       </c>
-      <c r="H140" s="4"/>
+      <c r="H140" s="6"/>
       <c r="I140" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5">
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7">
         <v>2</v>
       </c>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
       <c r="Z140" s="1">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -10122,7 +10508,7 @@
       </c>
     </row>
     <row r="141" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A141" s="12">
+      <c r="A141" s="14">
         <v>43570</v>
       </c>
       <c r="B141" s="1">
@@ -10143,22 +10529,22 @@
       <c r="G141" s="1">
         <v>18059995758</v>
       </c>
-      <c r="H141" s="4"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5">
-        <v>1</v>
-      </c>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7">
+        <v>1</v>
+      </c>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="7"/>
       <c r="Z141" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -10169,7 +10555,7 @@
       </c>
     </row>
     <row r="142" s="1" customFormat="1" hidden="1" spans="1:27">
-      <c r="A142" s="12">
+      <c r="A142" s="14">
         <v>43570</v>
       </c>
       <c r="B142" s="1">
@@ -10190,33 +10576,33 @@
       <c r="G142" s="1">
         <v>13952359816</v>
       </c>
-      <c r="H142" s="4"/>
+      <c r="H142" s="6"/>
       <c r="I142" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5">
+      <c r="J142" s="7"/>
+      <c r="K142" s="7">
         <v>7</v>
       </c>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="7"/>
       <c r="Z142" s="1">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AA142" s="1" t="str">
-        <f t="shared" ref="AA142:AA205" si="9">IF(J142&gt;0,"U1-"&amp;J142&amp;";","")&amp;IF(K142&gt;0,"U2-"&amp;K142&amp;";","")&amp;IF(L142&gt;0,"U3-"&amp;L142&amp;";","")&amp;IF(M142&gt;0,"U4-"&amp;M142&amp;";","")&amp;IF(N142&gt;0,"U6-"&amp;N142&amp;";","")&amp;IF(O142&gt;0,"U7-"&amp;O142&amp;";","")&amp;IF(P142&gt;0,"U8-"&amp;P142&amp;";","")&amp;IF(Q142&gt;0,"U9-"&amp;Q142&amp;";","")&amp;IF(R142&gt;0,"U10-"&amp;R142&amp;";","")&amp;U142</f>
+        <f>IF(J142&gt;0,"U1-"&amp;J142&amp;";","")&amp;IF(K142&gt;0,"U2-"&amp;K142&amp;";","")&amp;IF(L142&gt;0,"U3-"&amp;L142&amp;";","")&amp;IF(M142&gt;0,"U4-"&amp;M142&amp;";","")&amp;IF(N142&gt;0,"U6-"&amp;N142&amp;";","")&amp;IF(O142&gt;0,"U7-"&amp;O142&amp;";","")&amp;IF(P142&gt;0,"U8-"&amp;P142&amp;";","")&amp;IF(Q142&gt;0,"U9-"&amp;Q142&amp;";","")&amp;IF(R142&gt;0,"U10-"&amp;R142&amp;";","")&amp;U142</f>
         <v>U2-7;</v>
       </c>
     </row>
     <row r="143" ht="21" hidden="1" customHeight="1" spans="1:27">
-      <c r="A143" s="12">
+      <c r="A143" s="14">
         <v>43571</v>
       </c>
       <c r="B143" s="1">
@@ -10240,7 +10626,7 @@
       <c r="I143" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K143" s="5">
+      <c r="K143" s="7">
         <v>2</v>
       </c>
       <c r="Z143" s="1">
@@ -10248,12 +10634,12 @@
         <v>2</v>
       </c>
       <c r="AA143" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J143&gt;0,"U1-"&amp;J143&amp;";","")&amp;IF(K143&gt;0,"U2-"&amp;K143&amp;";","")&amp;IF(L143&gt;0,"U3-"&amp;L143&amp;";","")&amp;IF(M143&gt;0,"U4-"&amp;M143&amp;";","")&amp;IF(N143&gt;0,"U6-"&amp;N143&amp;";","")&amp;IF(O143&gt;0,"U7-"&amp;O143&amp;";","")&amp;IF(P143&gt;0,"U8-"&amp;P143&amp;";","")&amp;IF(Q143&gt;0,"U9-"&amp;Q143&amp;";","")&amp;IF(R143&gt;0,"U10-"&amp;R143&amp;";","")&amp;U143</f>
         <v>U2-2;</v>
       </c>
     </row>
     <row r="144" hidden="1" spans="1:27">
-      <c r="A144" s="12">
+      <c r="A144" s="14">
         <v>43571</v>
       </c>
       <c r="B144" s="1">
@@ -10277,7 +10663,7 @@
       <c r="I144" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="Q144" s="5">
+      <c r="Q144" s="7">
         <v>1</v>
       </c>
       <c r="Z144" s="1">
@@ -10285,12 +10671,12 @@
         <v>1</v>
       </c>
       <c r="AA144" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J144&gt;0,"U1-"&amp;J144&amp;";","")&amp;IF(K144&gt;0,"U2-"&amp;K144&amp;";","")&amp;IF(L144&gt;0,"U3-"&amp;L144&amp;";","")&amp;IF(M144&gt;0,"U4-"&amp;M144&amp;";","")&amp;IF(N144&gt;0,"U6-"&amp;N144&amp;";","")&amp;IF(O144&gt;0,"U7-"&amp;O144&amp;";","")&amp;IF(P144&gt;0,"U8-"&amp;P144&amp;";","")&amp;IF(Q144&gt;0,"U9-"&amp;Q144&amp;";","")&amp;IF(R144&gt;0,"U10-"&amp;R144&amp;";","")&amp;U144</f>
         <v>U9-1;</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:27">
-      <c r="A145" s="12">
+      <c r="A145" s="14">
         <v>43571</v>
       </c>
       <c r="B145" s="1">
@@ -10314,10 +10700,10 @@
       <c r="I145" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K145" s="5">
-        <v>1</v>
-      </c>
-      <c r="R145" s="5">
+      <c r="K145" s="7">
+        <v>1</v>
+      </c>
+      <c r="R145" s="7">
         <v>1</v>
       </c>
       <c r="Z145" s="1">
@@ -10325,12 +10711,12 @@
         <v>2</v>
       </c>
       <c r="AA145" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J145&gt;0,"U1-"&amp;J145&amp;";","")&amp;IF(K145&gt;0,"U2-"&amp;K145&amp;";","")&amp;IF(L145&gt;0,"U3-"&amp;L145&amp;";","")&amp;IF(M145&gt;0,"U4-"&amp;M145&amp;";","")&amp;IF(N145&gt;0,"U6-"&amp;N145&amp;";","")&amp;IF(O145&gt;0,"U7-"&amp;O145&amp;";","")&amp;IF(P145&gt;0,"U8-"&amp;P145&amp;";","")&amp;IF(Q145&gt;0,"U9-"&amp;Q145&amp;";","")&amp;IF(R145&gt;0,"U10-"&amp;R145&amp;";","")&amp;U145</f>
         <v>U2-1;U10-1;</v>
       </c>
     </row>
     <row r="146" hidden="1" spans="1:27">
-      <c r="A146" s="12">
+      <c r="A146" s="14">
         <v>43571</v>
       </c>
       <c r="B146" s="1">
@@ -10354,7 +10740,7 @@
       <c r="I146" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="Q146" s="5">
+      <c r="Q146" s="7">
         <v>3</v>
       </c>
       <c r="Z146" s="1">
@@ -10362,12 +10748,12 @@
         <v>3</v>
       </c>
       <c r="AA146" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J146&gt;0,"U1-"&amp;J146&amp;";","")&amp;IF(K146&gt;0,"U2-"&amp;K146&amp;";","")&amp;IF(L146&gt;0,"U3-"&amp;L146&amp;";","")&amp;IF(M146&gt;0,"U4-"&amp;M146&amp;";","")&amp;IF(N146&gt;0,"U6-"&amp;N146&amp;";","")&amp;IF(O146&gt;0,"U7-"&amp;O146&amp;";","")&amp;IF(P146&gt;0,"U8-"&amp;P146&amp;";","")&amp;IF(Q146&gt;0,"U9-"&amp;Q146&amp;";","")&amp;IF(R146&gt;0,"U10-"&amp;R146&amp;";","")&amp;U146</f>
         <v>U9-3;</v>
       </c>
     </row>
     <row r="147" hidden="1" spans="1:27">
-      <c r="A147" s="12">
+      <c r="A147" s="14">
         <v>43571</v>
       </c>
       <c r="B147" s="1">
@@ -10391,7 +10777,7 @@
       <c r="I147" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147" s="7">
         <v>1</v>
       </c>
       <c r="Z147" s="1">
@@ -10399,12 +10785,12 @@
         <v>1</v>
       </c>
       <c r="AA147" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J147&gt;0,"U1-"&amp;J147&amp;";","")&amp;IF(K147&gt;0,"U2-"&amp;K147&amp;";","")&amp;IF(L147&gt;0,"U3-"&amp;L147&amp;";","")&amp;IF(M147&gt;0,"U4-"&amp;M147&amp;";","")&amp;IF(N147&gt;0,"U6-"&amp;N147&amp;";","")&amp;IF(O147&gt;0,"U7-"&amp;O147&amp;";","")&amp;IF(P147&gt;0,"U8-"&amp;P147&amp;";","")&amp;IF(Q147&gt;0,"U9-"&amp;Q147&amp;";","")&amp;IF(R147&gt;0,"U10-"&amp;R147&amp;";","")&amp;U147</f>
         <v>U1-1;</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:27">
-      <c r="A148" s="12">
+      <c r="A148" s="14">
         <v>43571</v>
       </c>
       <c r="B148" s="1">
@@ -10428,13 +10814,13 @@
       <c r="I148" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J148" s="5">
-        <v>1</v>
-      </c>
-      <c r="L148" s="5">
+      <c r="J148" s="7">
+        <v>1</v>
+      </c>
+      <c r="L148" s="7">
         <v>2</v>
       </c>
-      <c r="Q148" s="5">
+      <c r="Q148" s="7">
         <v>1</v>
       </c>
       <c r="Z148" s="1">
@@ -10442,18 +10828,18 @@
         <v>4</v>
       </c>
       <c r="AA148" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J148&gt;0,"U1-"&amp;J148&amp;";","")&amp;IF(K148&gt;0,"U2-"&amp;K148&amp;";","")&amp;IF(L148&gt;0,"U3-"&amp;L148&amp;";","")&amp;IF(M148&gt;0,"U4-"&amp;M148&amp;";","")&amp;IF(N148&gt;0,"U6-"&amp;N148&amp;";","")&amp;IF(O148&gt;0,"U7-"&amp;O148&amp;";","")&amp;IF(P148&gt;0,"U8-"&amp;P148&amp;";","")&amp;IF(Q148&gt;0,"U9-"&amp;Q148&amp;";","")&amp;IF(R148&gt;0,"U10-"&amp;R148&amp;";","")&amp;U148</f>
         <v>U1-1;U3-2;U9-1;</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:27">
-      <c r="A149" s="12">
+      <c r="A149" s="14">
         <v>43571</v>
       </c>
       <c r="B149" s="1">
         <v>5738025845</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -10471,7 +10857,7 @@
       <c r="I149" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L149" s="5">
+      <c r="L149" s="7">
         <v>1</v>
       </c>
       <c r="Z149" s="1">
@@ -10479,12 +10865,12 @@
         <v>1</v>
       </c>
       <c r="AA149" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J149&gt;0,"U1-"&amp;J149&amp;";","")&amp;IF(K149&gt;0,"U2-"&amp;K149&amp;";","")&amp;IF(L149&gt;0,"U3-"&amp;L149&amp;";","")&amp;IF(M149&gt;0,"U4-"&amp;M149&amp;";","")&amp;IF(N149&gt;0,"U6-"&amp;N149&amp;";","")&amp;IF(O149&gt;0,"U7-"&amp;O149&amp;";","")&amp;IF(P149&gt;0,"U8-"&amp;P149&amp;";","")&amp;IF(Q149&gt;0,"U9-"&amp;Q149&amp;";","")&amp;IF(R149&gt;0,"U10-"&amp;R149&amp;";","")&amp;U149</f>
         <v>U3-1;</v>
       </c>
     </row>
     <row r="150" hidden="1" spans="1:27">
-      <c r="A150" s="12">
+      <c r="A150" s="14">
         <v>43571</v>
       </c>
       <c r="B150" s="1">
@@ -10508,10 +10894,10 @@
       <c r="I150" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K150" s="7">
         <v>2</v>
       </c>
-      <c r="P150" s="5">
+      <c r="P150" s="7">
         <v>1</v>
       </c>
       <c r="Z150" s="1">
@@ -10519,12 +10905,12 @@
         <v>3</v>
       </c>
       <c r="AA150" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J150&gt;0,"U1-"&amp;J150&amp;";","")&amp;IF(K150&gt;0,"U2-"&amp;K150&amp;";","")&amp;IF(L150&gt;0,"U3-"&amp;L150&amp;";","")&amp;IF(M150&gt;0,"U4-"&amp;M150&amp;";","")&amp;IF(N150&gt;0,"U6-"&amp;N150&amp;";","")&amp;IF(O150&gt;0,"U7-"&amp;O150&amp;";","")&amp;IF(P150&gt;0,"U8-"&amp;P150&amp;";","")&amp;IF(Q150&gt;0,"U9-"&amp;Q150&amp;";","")&amp;IF(R150&gt;0,"U10-"&amp;R150&amp;";","")&amp;U150</f>
         <v>U2-2;U8-1;</v>
       </c>
     </row>
     <row r="151" hidden="1" spans="1:27">
-      <c r="A151" s="12">
+      <c r="A151" s="14">
         <v>43571</v>
       </c>
       <c r="B151" s="1">
@@ -10556,12 +10942,12 @@
         <v>0</v>
       </c>
       <c r="AA151" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J151&gt;0,"U1-"&amp;J151&amp;";","")&amp;IF(K151&gt;0,"U2-"&amp;K151&amp;";","")&amp;IF(L151&gt;0,"U3-"&amp;L151&amp;";","")&amp;IF(M151&gt;0,"U4-"&amp;M151&amp;";","")&amp;IF(N151&gt;0,"U6-"&amp;N151&amp;";","")&amp;IF(O151&gt;0,"U7-"&amp;O151&amp;";","")&amp;IF(P151&gt;0,"U8-"&amp;P151&amp;";","")&amp;IF(Q151&gt;0,"U9-"&amp;Q151&amp;";","")&amp;IF(R151&gt;0,"U10-"&amp;R151&amp;";","")&amp;U151</f>
         <v>UK10 -1</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:27">
-      <c r="A152" s="12">
+      <c r="A152" s="14">
         <v>43572</v>
       </c>
       <c r="B152" s="1">
@@ -10585,7 +10971,7 @@
       <c r="I152" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J152" s="5">
+      <c r="J152" s="7">
         <v>1</v>
       </c>
       <c r="Z152" s="1">
@@ -10593,12 +10979,12 @@
         <v>1</v>
       </c>
       <c r="AA152" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J152&gt;0,"U1-"&amp;J152&amp;";","")&amp;IF(K152&gt;0,"U2-"&amp;K152&amp;";","")&amp;IF(L152&gt;0,"U3-"&amp;L152&amp;";","")&amp;IF(M152&gt;0,"U4-"&amp;M152&amp;";","")&amp;IF(N152&gt;0,"U6-"&amp;N152&amp;";","")&amp;IF(O152&gt;0,"U7-"&amp;O152&amp;";","")&amp;IF(P152&gt;0,"U8-"&amp;P152&amp;";","")&amp;IF(Q152&gt;0,"U9-"&amp;Q152&amp;";","")&amp;IF(R152&gt;0,"U10-"&amp;R152&amp;";","")&amp;U152</f>
         <v>U1-1;</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:27">
-      <c r="A153" s="12">
+      <c r="A153" s="14">
         <v>43572</v>
       </c>
       <c r="B153" s="1">
@@ -10630,12 +11016,12 @@
         <v>0</v>
       </c>
       <c r="AA153" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J153&gt;0,"U1-"&amp;J153&amp;";","")&amp;IF(K153&gt;0,"U2-"&amp;K153&amp;";","")&amp;IF(L153&gt;0,"U3-"&amp;L153&amp;";","")&amp;IF(M153&gt;0,"U4-"&amp;M153&amp;";","")&amp;IF(N153&gt;0,"U6-"&amp;N153&amp;";","")&amp;IF(O153&gt;0,"U7-"&amp;O153&amp;";","")&amp;IF(P153&gt;0,"U8-"&amp;P153&amp;";","")&amp;IF(Q153&gt;0,"U9-"&amp;Q153&amp;";","")&amp;IF(R153&gt;0,"U10-"&amp;R153&amp;";","")&amp;U153</f>
         <v>UK10 -1</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:27">
-      <c r="A154" s="12">
+      <c r="A154" s="14">
         <v>43572</v>
       </c>
       <c r="B154" s="1">
@@ -10659,31 +11045,31 @@
       <c r="I154" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J154" s="5">
+      <c r="J154" s="7">
         <v>10</v>
       </c>
-      <c r="K154" s="5">
+      <c r="K154" s="7">
         <v>10</v>
       </c>
-      <c r="L154" s="5">
+      <c r="L154" s="7">
         <v>6</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>6</v>
       </c>
-      <c r="N154" s="5">
+      <c r="N154" s="7">
         <v>3</v>
       </c>
-      <c r="O154" s="5">
+      <c r="O154" s="7">
         <v>2</v>
       </c>
-      <c r="P154" s="5">
+      <c r="P154" s="7">
         <v>2</v>
       </c>
-      <c r="Q154" s="5">
+      <c r="Q154" s="7">
         <v>3</v>
       </c>
-      <c r="R154" s="5">
+      <c r="R154" s="7">
         <v>2</v>
       </c>
       <c r="Z154" s="1">
@@ -10691,12 +11077,12 @@
         <v>44</v>
       </c>
       <c r="AA154" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J154&gt;0,"U1-"&amp;J154&amp;";","")&amp;IF(K154&gt;0,"U2-"&amp;K154&amp;";","")&amp;IF(L154&gt;0,"U3-"&amp;L154&amp;";","")&amp;IF(M154&gt;0,"U4-"&amp;M154&amp;";","")&amp;IF(N154&gt;0,"U6-"&amp;N154&amp;";","")&amp;IF(O154&gt;0,"U7-"&amp;O154&amp;";","")&amp;IF(P154&gt;0,"U8-"&amp;P154&amp;";","")&amp;IF(Q154&gt;0,"U9-"&amp;Q154&amp;";","")&amp;IF(R154&gt;0,"U10-"&amp;R154&amp;";","")&amp;U154</f>
         <v>U1-10;U2-10;U3-6;U4-6;U6-3;U7-2;U8-2;U9-3;U10-2;</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:27">
-      <c r="A155" s="12">
+      <c r="A155" s="14">
         <v>43572</v>
       </c>
       <c r="B155" s="1">
@@ -10720,7 +11106,7 @@
       <c r="I155" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="P155" s="5">
+      <c r="P155" s="7">
         <v>2</v>
       </c>
       <c r="Z155" s="1">
@@ -10728,12 +11114,12 @@
         <v>2</v>
       </c>
       <c r="AA155" s="1" t="str">
-        <f t="shared" ref="AA155:AA157" si="10">IF(J156&gt;0,"U1-"&amp;J156&amp;";","")&amp;IF(K156&gt;0,"U2-"&amp;K156&amp;";","")&amp;IF(L156&gt;0,"U3-"&amp;L156&amp;";","")&amp;IF(M156&gt;0,"U4-"&amp;M156&amp;";","")&amp;IF(N156&gt;0,"U6-"&amp;N156&amp;";","")&amp;IF(O156&gt;0,"U7-"&amp;O156&amp;";","")&amp;IF(P156&gt;0,"U8-"&amp;P156&amp;";","")&amp;IF(Q156&gt;0,"U9-"&amp;Q156&amp;";","")&amp;IF(R156&gt;0,"U10-"&amp;R156&amp;";","")&amp;U155</f>
+        <f t="shared" ref="AA155:AA157" si="9">IF(J156&gt;0,"U1-"&amp;J156&amp;";","")&amp;IF(K156&gt;0,"U2-"&amp;K156&amp;";","")&amp;IF(L156&gt;0,"U3-"&amp;L156&amp;";","")&amp;IF(M156&gt;0,"U4-"&amp;M156&amp;";","")&amp;IF(N156&gt;0,"U6-"&amp;N156&amp;";","")&amp;IF(O156&gt;0,"U7-"&amp;O156&amp;";","")&amp;IF(P156&gt;0,"U8-"&amp;P156&amp;";","")&amp;IF(Q156&gt;0,"U9-"&amp;Q156&amp;";","")&amp;IF(R156&gt;0,"U10-"&amp;R156&amp;";","")&amp;U155</f>
         <v>U9-1;</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:27">
-      <c r="A156" s="12">
+      <c r="A156" s="14">
         <v>43572</v>
       </c>
       <c r="B156" s="1">
@@ -10757,7 +11143,7 @@
       <c r="I156" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Q156" s="5">
+      <c r="Q156" s="7">
         <v>1</v>
       </c>
       <c r="Z156" s="1">
@@ -10765,12 +11151,12 @@
         <v>1</v>
       </c>
       <c r="AA156" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>U2-2;U9-4;</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:27">
-      <c r="A157" s="12">
+      <c r="A157" s="14">
         <v>43572</v>
       </c>
       <c r="B157" s="1">
@@ -10794,10 +11180,10 @@
       <c r="I157" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K157" s="5">
+      <c r="K157" s="7">
         <v>2</v>
       </c>
-      <c r="Q157" s="5">
+      <c r="Q157" s="7">
         <v>4</v>
       </c>
       <c r="Z157" s="1">
@@ -10805,12 +11191,12 @@
         <v>6</v>
       </c>
       <c r="AA157" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>U1-5;U2-5;U6-2;</v>
       </c>
     </row>
     <row r="158" spans="1:27">
-      <c r="A158" s="12">
+      <c r="A158" s="14">
         <v>43573</v>
       </c>
       <c r="B158" s="1">
@@ -10834,13 +11220,13 @@
       <c r="I158" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J158" s="7">
         <v>5</v>
       </c>
-      <c r="K158" s="5">
+      <c r="K158" s="7">
         <v>5</v>
       </c>
-      <c r="N158" s="5">
+      <c r="N158" s="7">
         <v>2</v>
       </c>
       <c r="Z158" s="1">
@@ -10848,12 +11234,12 @@
         <v>12</v>
       </c>
       <c r="AA158" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J158&gt;0,"U1-"&amp;J158&amp;";","")&amp;IF(K158&gt;0,"U2-"&amp;K158&amp;";","")&amp;IF(L158&gt;0,"U3-"&amp;L158&amp;";","")&amp;IF(M158&gt;0,"U4-"&amp;M158&amp;";","")&amp;IF(N158&gt;0,"U6-"&amp;N158&amp;";","")&amp;IF(O158&gt;0,"U7-"&amp;O158&amp;";","")&amp;IF(P158&gt;0,"U8-"&amp;P158&amp;";","")&amp;IF(Q158&gt;0,"U9-"&amp;Q158&amp;";","")&amp;IF(R158&gt;0,"U10-"&amp;R158&amp;";","")&amp;U158</f>
         <v>U1-5;U2-5;U6-2;</v>
       </c>
     </row>
     <row r="159" spans="1:27">
-      <c r="A159" s="12">
+      <c r="A159" s="14">
         <v>43573</v>
       </c>
       <c r="B159" s="1">
@@ -10885,12 +11271,12 @@
         <v>0</v>
       </c>
       <c r="AA159" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J159&gt;0,"U1-"&amp;J159&amp;";","")&amp;IF(K159&gt;0,"U2-"&amp;K159&amp;";","")&amp;IF(L159&gt;0,"U3-"&amp;L159&amp;";","")&amp;IF(M159&gt;0,"U4-"&amp;M159&amp;";","")&amp;IF(N159&gt;0,"U6-"&amp;N159&amp;";","")&amp;IF(O159&gt;0,"U7-"&amp;O159&amp;";","")&amp;IF(P159&gt;0,"U8-"&amp;P159&amp;";","")&amp;IF(Q159&gt;0,"U9-"&amp;Q159&amp;";","")&amp;IF(R159&gt;0,"U10-"&amp;R159&amp;";","")&amp;U159</f>
         <v>UK7.5 -1 </v>
       </c>
     </row>
     <row r="160" spans="1:27">
-      <c r="A160" s="12">
+      <c r="A160" s="14">
         <v>43573</v>
       </c>
       <c r="B160" s="1">
@@ -10914,7 +11300,7 @@
       <c r="I160" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="7">
         <v>2</v>
       </c>
       <c r="Z160" s="1">
@@ -10922,12 +11308,12 @@
         <v>2</v>
       </c>
       <c r="AA160" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J160&gt;0,"U1-"&amp;J160&amp;";","")&amp;IF(K160&gt;0,"U2-"&amp;K160&amp;";","")&amp;IF(L160&gt;0,"U3-"&amp;L160&amp;";","")&amp;IF(M160&gt;0,"U4-"&amp;M160&amp;";","")&amp;IF(N160&gt;0,"U6-"&amp;N160&amp;";","")&amp;IF(O160&gt;0,"U7-"&amp;O160&amp;";","")&amp;IF(P160&gt;0,"U8-"&amp;P160&amp;";","")&amp;IF(Q160&gt;0,"U9-"&amp;Q160&amp;";","")&amp;IF(R160&gt;0,"U10-"&amp;R160&amp;";","")&amp;U160</f>
         <v>U1-2;</v>
       </c>
     </row>
     <row r="161" spans="1:27">
-      <c r="A161" s="12">
+      <c r="A161" s="14">
         <v>43573</v>
       </c>
       <c r="B161" s="1">
@@ -10951,7 +11337,7 @@
       <c r="I161" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161" s="7">
         <v>3</v>
       </c>
       <c r="Z161" s="1">
@@ -10959,12 +11345,12 @@
         <v>3</v>
       </c>
       <c r="AA161" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J161&gt;0,"U1-"&amp;J161&amp;";","")&amp;IF(K161&gt;0,"U2-"&amp;K161&amp;";","")&amp;IF(L161&gt;0,"U3-"&amp;L161&amp;";","")&amp;IF(M161&gt;0,"U4-"&amp;M161&amp;";","")&amp;IF(N161&gt;0,"U6-"&amp;N161&amp;";","")&amp;IF(O161&gt;0,"U7-"&amp;O161&amp;";","")&amp;IF(P161&gt;0,"U8-"&amp;P161&amp;";","")&amp;IF(Q161&gt;0,"U9-"&amp;Q161&amp;";","")&amp;IF(R161&gt;0,"U10-"&amp;R161&amp;";","")&amp;U161</f>
         <v>U1-3;</v>
       </c>
     </row>
     <row r="162" spans="1:27">
-      <c r="A162" s="12">
+      <c r="A162" s="14">
         <v>43573</v>
       </c>
       <c r="B162" s="1">
@@ -10988,19 +11374,19 @@
       <c r="I162" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J162" s="7">
         <v>6</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K162" s="7">
         <v>3</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L162" s="7">
         <v>3</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="7">
         <v>3</v>
       </c>
-      <c r="O162" s="5">
+      <c r="O162" s="7">
         <v>1</v>
       </c>
       <c r="Z162" s="1">
@@ -11008,12 +11394,12 @@
         <v>16</v>
       </c>
       <c r="AA162" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J162&gt;0,"U1-"&amp;J162&amp;";","")&amp;IF(K162&gt;0,"U2-"&amp;K162&amp;";","")&amp;IF(L162&gt;0,"U3-"&amp;L162&amp;";","")&amp;IF(M162&gt;0,"U4-"&amp;M162&amp;";","")&amp;IF(N162&gt;0,"U6-"&amp;N162&amp;";","")&amp;IF(O162&gt;0,"U7-"&amp;O162&amp;";","")&amp;IF(P162&gt;0,"U8-"&amp;P162&amp;";","")&amp;IF(Q162&gt;0,"U9-"&amp;Q162&amp;";","")&amp;IF(R162&gt;0,"U10-"&amp;R162&amp;";","")&amp;U162</f>
         <v>U1-6;U2-3;U3-3;U4-3;U7-1;</v>
       </c>
     </row>
     <row r="163" spans="1:27">
-      <c r="A163" s="12">
+      <c r="A163" s="14">
         <v>43573</v>
       </c>
       <c r="B163" s="1">
@@ -11037,10 +11423,10 @@
       <c r="I163" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J163" s="5">
-        <v>1</v>
-      </c>
-      <c r="K163" s="5">
+      <c r="J163" s="7">
+        <v>1</v>
+      </c>
+      <c r="K163" s="7">
         <v>1</v>
       </c>
       <c r="Z163" s="1">
@@ -11048,12 +11434,12 @@
         <v>2</v>
       </c>
       <c r="AA163" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J163&gt;0,"U1-"&amp;J163&amp;";","")&amp;IF(K163&gt;0,"U2-"&amp;K163&amp;";","")&amp;IF(L163&gt;0,"U3-"&amp;L163&amp;";","")&amp;IF(M163&gt;0,"U4-"&amp;M163&amp;";","")&amp;IF(N163&gt;0,"U6-"&amp;N163&amp;";","")&amp;IF(O163&gt;0,"U7-"&amp;O163&amp;";","")&amp;IF(P163&gt;0,"U8-"&amp;P163&amp;";","")&amp;IF(Q163&gt;0,"U9-"&amp;Q163&amp;";","")&amp;IF(R163&gt;0,"U10-"&amp;R163&amp;";","")&amp;U163</f>
         <v>U1-1;U2-1;</v>
       </c>
     </row>
     <row r="164" spans="1:27">
-      <c r="A164" s="12">
+      <c r="A164" s="14">
         <v>43573</v>
       </c>
       <c r="B164" s="1">
@@ -11077,7 +11463,7 @@
       <c r="I164" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K164" s="5">
+      <c r="K164" s="7">
         <v>2</v>
       </c>
       <c r="Z164" s="1">
@@ -11085,12 +11471,12 @@
         <v>2</v>
       </c>
       <c r="AA164" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J164&gt;0,"U1-"&amp;J164&amp;";","")&amp;IF(K164&gt;0,"U2-"&amp;K164&amp;";","")&amp;IF(L164&gt;0,"U3-"&amp;L164&amp;";","")&amp;IF(M164&gt;0,"U4-"&amp;M164&amp;";","")&amp;IF(N164&gt;0,"U6-"&amp;N164&amp;";","")&amp;IF(O164&gt;0,"U7-"&amp;O164&amp;";","")&amp;IF(P164&gt;0,"U8-"&amp;P164&amp;";","")&amp;IF(Q164&gt;0,"U9-"&amp;Q164&amp;";","")&amp;IF(R164&gt;0,"U10-"&amp;R164&amp;";","")&amp;U164</f>
         <v>U2-2;</v>
       </c>
     </row>
     <row r="165" spans="1:27">
-      <c r="A165" s="12">
+      <c r="A165" s="14">
         <v>43573</v>
       </c>
       <c r="B165" s="1">
@@ -11114,13 +11500,13 @@
       <c r="I165" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J165" s="5">
+      <c r="J165" s="7">
         <v>4</v>
       </c>
-      <c r="K165" s="5">
+      <c r="K165" s="7">
         <v>5</v>
       </c>
-      <c r="R165" s="5">
+      <c r="R165" s="7">
         <v>1</v>
       </c>
       <c r="Z165" s="1">
@@ -11128,12 +11514,12 @@
         <v>10</v>
       </c>
       <c r="AA165" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J165&gt;0,"U1-"&amp;J165&amp;";","")&amp;IF(K165&gt;0,"U2-"&amp;K165&amp;";","")&amp;IF(L165&gt;0,"U3-"&amp;L165&amp;";","")&amp;IF(M165&gt;0,"U4-"&amp;M165&amp;";","")&amp;IF(N165&gt;0,"U6-"&amp;N165&amp;";","")&amp;IF(O165&gt;0,"U7-"&amp;O165&amp;";","")&amp;IF(P165&gt;0,"U8-"&amp;P165&amp;";","")&amp;IF(Q165&gt;0,"U9-"&amp;Q165&amp;";","")&amp;IF(R165&gt;0,"U10-"&amp;R165&amp;";","")&amp;U165</f>
         <v>U1-4;U2-5;U10-1;</v>
       </c>
     </row>
     <row r="166" spans="1:27">
-      <c r="A166" s="12">
+      <c r="A166" s="14">
         <v>43573</v>
       </c>
       <c r="B166" s="1">
@@ -11154,7 +11540,7 @@
       <c r="G166" s="1">
         <v>13382451910</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="6">
         <v>2.1040219520407e+17</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -11168,12 +11554,12 @@
         <v>0</v>
       </c>
       <c r="AA166" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J166&gt;0,"U1-"&amp;J166&amp;";","")&amp;IF(K166&gt;0,"U2-"&amp;K166&amp;";","")&amp;IF(L166&gt;0,"U3-"&amp;L166&amp;";","")&amp;IF(M166&gt;0,"U4-"&amp;M166&amp;";","")&amp;IF(N166&gt;0,"U6-"&amp;N166&amp;";","")&amp;IF(O166&gt;0,"U7-"&amp;O166&amp;";","")&amp;IF(P166&gt;0,"U8-"&amp;P166&amp;";","")&amp;IF(Q166&gt;0,"U9-"&amp;Q166&amp;";","")&amp;IF(R166&gt;0,"U10-"&amp;R166&amp;";","")&amp;U166</f>
         <v>1.7m×1m×5cm -1</v>
       </c>
     </row>
     <row r="167" spans="1:27">
-      <c r="A167" s="12">
+      <c r="A167" s="14">
         <v>43573</v>
       </c>
       <c r="B167" s="1">
@@ -11197,10 +11583,10 @@
       <c r="I167" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J167" s="5">
+      <c r="J167" s="7">
         <v>5</v>
       </c>
-      <c r="P167" s="5">
+      <c r="P167" s="7">
         <v>1</v>
       </c>
       <c r="Z167" s="1">
@@ -11208,12 +11594,12 @@
         <v>6</v>
       </c>
       <c r="AA167" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J167&gt;0,"U1-"&amp;J167&amp;";","")&amp;IF(K167&gt;0,"U2-"&amp;K167&amp;";","")&amp;IF(L167&gt;0,"U3-"&amp;L167&amp;";","")&amp;IF(M167&gt;0,"U4-"&amp;M167&amp;";","")&amp;IF(N167&gt;0,"U6-"&amp;N167&amp;";","")&amp;IF(O167&gt;0,"U7-"&amp;O167&amp;";","")&amp;IF(P167&gt;0,"U8-"&amp;P167&amp;";","")&amp;IF(Q167&gt;0,"U9-"&amp;Q167&amp;";","")&amp;IF(R167&gt;0,"U10-"&amp;R167&amp;";","")&amp;U167</f>
         <v>U1-5;U8-1;</v>
       </c>
     </row>
     <row r="168" spans="1:27">
-      <c r="A168" s="12">
+      <c r="A168" s="14">
         <v>43573</v>
       </c>
       <c r="B168" s="1">
@@ -11234,7 +11620,7 @@
       <c r="G168" s="1">
         <v>13781905678</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="6">
         <v>4.10727198612067e+17</v>
       </c>
       <c r="I168" s="1" t="s">
@@ -11248,12 +11634,12 @@
         <v>0</v>
       </c>
       <c r="AA168" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J168&gt;0,"U1-"&amp;J168&amp;";","")&amp;IF(K168&gt;0,"U2-"&amp;K168&amp;";","")&amp;IF(L168&gt;0,"U3-"&amp;L168&amp;";","")&amp;IF(M168&gt;0,"U4-"&amp;M168&amp;";","")&amp;IF(N168&gt;0,"U6-"&amp;N168&amp;";","")&amp;IF(O168&gt;0,"U7-"&amp;O168&amp;";","")&amp;IF(P168&gt;0,"U8-"&amp;P168&amp;";","")&amp;IF(Q168&gt;0,"U9-"&amp;Q168&amp;";","")&amp;IF(R168&gt;0,"U10-"&amp;R168&amp;";","")&amp;U168</f>
         <v>90m×1.8m×5cm -1</v>
       </c>
     </row>
     <row r="169" spans="1:27">
-      <c r="A169" s="12">
+      <c r="A169" s="14">
         <v>43573</v>
       </c>
       <c r="B169" s="1">
@@ -11277,7 +11663,7 @@
       <c r="I169" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="P169" s="5">
+      <c r="P169" s="7">
         <v>4</v>
       </c>
       <c r="Z169" s="1">
@@ -11285,12 +11671,12 @@
         <v>4</v>
       </c>
       <c r="AA169" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J169&gt;0,"U1-"&amp;J169&amp;";","")&amp;IF(K169&gt;0,"U2-"&amp;K169&amp;";","")&amp;IF(L169&gt;0,"U3-"&amp;L169&amp;";","")&amp;IF(M169&gt;0,"U4-"&amp;M169&amp;";","")&amp;IF(N169&gt;0,"U6-"&amp;N169&amp;";","")&amp;IF(O169&gt;0,"U7-"&amp;O169&amp;";","")&amp;IF(P169&gt;0,"U8-"&amp;P169&amp;";","")&amp;IF(Q169&gt;0,"U9-"&amp;Q169&amp;";","")&amp;IF(R169&gt;0,"U10-"&amp;R169&amp;";","")&amp;U169</f>
         <v>U8-4;</v>
       </c>
     </row>
     <row r="170" spans="1:27">
-      <c r="A170" s="12">
+      <c r="A170" s="14">
         <v>43573</v>
       </c>
       <c r="B170" s="1">
@@ -11315,16 +11701,20 @@
       <c r="I170" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J170" s="5">
+      <c r="J170" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z170" s="1">
+        <f>SUM(J170:R170)</f>
         <v>1</v>
       </c>
       <c r="AA170" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J170&gt;0,"U1-"&amp;J170&amp;";","")&amp;IF(K170&gt;0,"U2-"&amp;K170&amp;";","")&amp;IF(L170&gt;0,"U3-"&amp;L170&amp;";","")&amp;IF(M170&gt;0,"U4-"&amp;M170&amp;";","")&amp;IF(N170&gt;0,"U6-"&amp;N170&amp;";","")&amp;IF(O170&gt;0,"U7-"&amp;O170&amp;";","")&amp;IF(P170&gt;0,"U8-"&amp;P170&amp;";","")&amp;IF(Q170&gt;0,"U9-"&amp;Q170&amp;";","")&amp;IF(R170&gt;0,"U10-"&amp;R170&amp;";","")&amp;U170</f>
         <v>U1-1;</v>
       </c>
     </row>
     <row r="171" spans="1:27">
-      <c r="A171" s="12">
+      <c r="A171" s="14">
         <v>43573</v>
       </c>
       <c r="B171" s="1">
@@ -11349,629 +11739,1332 @@
       <c r="I171" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="P171" s="5">
+      <c r="P171" s="7">
         <v>2</v>
       </c>
+      <c r="Z171" s="1">
+        <f>SUM(J171:R171)</f>
+        <v>2</v>
+      </c>
       <c r="AA171" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J171&gt;0,"U1-"&amp;J171&amp;";","")&amp;IF(K171&gt;0,"U2-"&amp;K171&amp;";","")&amp;IF(L171&gt;0,"U3-"&amp;L171&amp;";","")&amp;IF(M171&gt;0,"U4-"&amp;M171&amp;";","")&amp;IF(N171&gt;0,"U6-"&amp;N171&amp;";","")&amp;IF(O171&gt;0,"U7-"&amp;O171&amp;";","")&amp;IF(P171&gt;0,"U8-"&amp;P171&amp;";","")&amp;IF(Q171&gt;0,"U9-"&amp;Q171&amp;";","")&amp;IF(R171&gt;0,"U10-"&amp;R171&amp;";","")&amp;U171</f>
         <v>U8-2;</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
-      <c r="A172" s="12">
+    <row r="172" s="3" customFormat="1" spans="1:27">
+      <c r="A172" s="30">
+        <v>43573</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="G172" s="3">
+        <v>18368689229</v>
+      </c>
+      <c r="H172" s="32"/>
+      <c r="I172" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="J172" s="36">
+        <v>1</v>
+      </c>
+      <c r="K172" s="36"/>
+      <c r="L172" s="36"/>
+      <c r="M172" s="36"/>
+      <c r="N172" s="36"/>
+      <c r="O172" s="36"/>
+      <c r="P172" s="36"/>
+      <c r="Q172" s="36"/>
+      <c r="R172" s="36"/>
+      <c r="S172" s="36"/>
+      <c r="U172" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z172" s="3">
+        <f>SUM(J172:R172)</f>
+        <v>1</v>
+      </c>
+      <c r="AA172" s="3" t="str">
+        <f t="shared" ref="AA172:AA203" si="10">IF(J172&gt;0,"U1-"&amp;J172&amp;";","")&amp;IF(K172&gt;0,"U2-"&amp;K172&amp;";","")&amp;IF(L172&gt;0,"U3-"&amp;L172&amp;";","")&amp;IF(M172&gt;0,"U4-"&amp;M172&amp;";","")&amp;IF(N172&gt;0,"U6-"&amp;N172&amp;";","")&amp;IF(O172&gt;0,"U7-"&amp;O172&amp;";","")&amp;IF(P172&gt;0,"U8-"&amp;P172&amp;";","")&amp;IF(Q172&gt;0,"U9-"&amp;Q172&amp;";","")&amp;IF(R172&gt;0,"U10-"&amp;R172&amp;";","")&amp;U172</f>
+        <v>U1-1;UQ5-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
+      <c r="A173" s="14">
         <v>43574</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B173" s="1">
         <v>8265170918</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G172" s="1">
+      <c r="E173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G173" s="1">
         <v>18924627446</v>
-      </c>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J172" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA172" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>U1-1;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27">
-      <c r="A173" s="12">
-        <v>43574</v>
-      </c>
-      <c r="B173" s="1">
-        <v>7952887139</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G173" s="1">
-        <v>18023866345</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="O173" s="5">
+        <v>436</v>
+      </c>
+      <c r="J173" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z173" s="1">
+        <f>SUM(J173:R173)</f>
         <v>1</v>
       </c>
       <c r="AA173" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(J173&gt;0,"U1-"&amp;J173&amp;";","")&amp;IF(K173&gt;0,"U2-"&amp;K173&amp;";","")&amp;IF(L173&gt;0,"U3-"&amp;L173&amp;";","")&amp;IF(M173&gt;0,"U4-"&amp;M173&amp;";","")&amp;IF(N173&gt;0,"U6-"&amp;N173&amp;";","")&amp;IF(O173&gt;0,"U7-"&amp;O173&amp;";","")&amp;IF(P173&gt;0,"U8-"&amp;P173&amp;";","")&amp;IF(Q173&gt;0,"U9-"&amp;Q173&amp;";","")&amp;IF(R173&gt;0,"U10-"&amp;R173&amp;";","")&amp;U173</f>
+        <v>U1-1;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
+      <c r="A174" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B174" s="1">
+        <v>7952887139</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G174" s="1">
+        <v>18023866345</v>
+      </c>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O174" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z174" s="1">
+        <f>SUM(J174:R174)</f>
+        <v>1</v>
+      </c>
+      <c r="AA174" s="1" t="str">
+        <f>IF(J174&gt;0,"U1-"&amp;J174&amp;";","")&amp;IF(K174&gt;0,"U2-"&amp;K174&amp;";","")&amp;IF(L174&gt;0,"U3-"&amp;L174&amp;";","")&amp;IF(M174&gt;0,"U4-"&amp;M174&amp;";","")&amp;IF(N174&gt;0,"U6-"&amp;N174&amp;";","")&amp;IF(O174&gt;0,"U7-"&amp;O174&amp;";","")&amp;IF(P174&gt;0,"U8-"&amp;P174&amp;";","")&amp;IF(Q174&gt;0,"U9-"&amp;Q174&amp;";","")&amp;IF(R174&gt;0,"U10-"&amp;R174&amp;";","")&amp;U174</f>
         <v>U7-1;</v>
       </c>
     </row>
-    <row r="174" spans="27:27">
-      <c r="AA174" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="175" spans="1:27">
+      <c r="A175" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B175" s="1">
+        <v>8585360829</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G175" s="1">
+        <v>18033407517</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K175" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z175" s="1">
+        <f t="shared" ref="Z175:Z185" si="11">SUM(J175:R175)</f>
+        <v>2</v>
+      </c>
+      <c r="AA175" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>U2-2;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="A176" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B176" s="1">
+        <v>7258191822</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G176" s="1">
+        <v>13834375859</v>
+      </c>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K176" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z176" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AA176" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>U2-2;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8838132916</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G177" s="1">
+        <v>18738809963</v>
+      </c>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J177" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z177" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA177" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>U1-1;</v>
+      </c>
+    </row>
+    <row r="178" s="4" customFormat="1" spans="1:27">
+      <c r="A178" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B178" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G178" s="4">
+        <v>15347107729</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J178" s="37"/>
+      <c r="K178" s="37"/>
+      <c r="L178" s="37"/>
+      <c r="M178" s="37"/>
+      <c r="N178" s="37"/>
+      <c r="O178" s="37"/>
+      <c r="P178" s="37"/>
+      <c r="Q178" s="37"/>
+      <c r="R178" s="37"/>
+      <c r="S178" s="37"/>
+      <c r="Z178" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA178" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="27:27">
-      <c r="AA175" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="179" s="4" customFormat="1" spans="1:27">
+      <c r="A179" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G179" s="4">
+        <v>13945497375</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J179" s="37"/>
+      <c r="K179" s="37"/>
+      <c r="L179" s="37"/>
+      <c r="M179" s="37"/>
+      <c r="N179" s="37"/>
+      <c r="O179" s="37"/>
+      <c r="P179" s="37"/>
+      <c r="Q179" s="37"/>
+      <c r="R179" s="37"/>
+      <c r="S179" s="37"/>
+      <c r="Z179" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA179" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="27:27">
-      <c r="AA176" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="180" s="4" customFormat="1" spans="1:27">
+      <c r="A180" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B180" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G180" s="4">
+        <v>13599991255</v>
+      </c>
+      <c r="H180" s="35"/>
+      <c r="I180" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J180" s="37"/>
+      <c r="K180" s="37"/>
+      <c r="L180" s="37"/>
+      <c r="M180" s="37"/>
+      <c r="N180" s="37"/>
+      <c r="O180" s="37"/>
+      <c r="P180" s="37"/>
+      <c r="Q180" s="37"/>
+      <c r="R180" s="37"/>
+      <c r="S180" s="37"/>
+      <c r="Z180" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA180" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="27:27">
-      <c r="AA177" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="181" s="4" customFormat="1" spans="1:27">
+      <c r="A181" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G181" s="4">
+        <v>18954112150</v>
+      </c>
+      <c r="H181" s="35"/>
+      <c r="I181" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J181" s="37"/>
+      <c r="K181" s="37"/>
+      <c r="L181" s="37"/>
+      <c r="M181" s="37"/>
+      <c r="N181" s="37"/>
+      <c r="O181" s="37"/>
+      <c r="P181" s="37"/>
+      <c r="Q181" s="37"/>
+      <c r="R181" s="37"/>
+      <c r="S181" s="37"/>
+      <c r="Z181" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA181" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="27:27">
-      <c r="AA178" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="182" s="4" customFormat="1" spans="1:27">
+      <c r="A182" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G182" s="4">
+        <v>13177777058</v>
+      </c>
+      <c r="H182" s="35"/>
+      <c r="I182" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J182" s="37"/>
+      <c r="K182" s="37"/>
+      <c r="L182" s="37"/>
+      <c r="M182" s="37"/>
+      <c r="N182" s="37"/>
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="37"/>
+      <c r="R182" s="37"/>
+      <c r="S182" s="37"/>
+      <c r="Z182" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA182" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="27:27">
-      <c r="AA179" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="183" s="4" customFormat="1" spans="1:27">
+      <c r="A183" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B183" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G183" s="4">
+        <v>18622225953</v>
+      </c>
+      <c r="H183" s="35"/>
+      <c r="I183" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="J183" s="37"/>
+      <c r="K183" s="37"/>
+      <c r="L183" s="37"/>
+      <c r="M183" s="37"/>
+      <c r="N183" s="37"/>
+      <c r="O183" s="37"/>
+      <c r="P183" s="37"/>
+      <c r="Q183" s="37"/>
+      <c r="R183" s="37"/>
+      <c r="S183" s="37"/>
+      <c r="Z183" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA183" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="27:27">
-      <c r="AA180" s="1" t="str">
-        <f t="shared" si="9"/>
+    <row r="184" s="4" customFormat="1" spans="1:27">
+      <c r="A184" s="33">
+        <v>43574</v>
+      </c>
+      <c r="B184" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G184" s="4">
+        <v>18851459259</v>
+      </c>
+      <c r="H184" s="35"/>
+      <c r="I184" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J184" s="37"/>
+      <c r="K184" s="37"/>
+      <c r="L184" s="37"/>
+      <c r="M184" s="37"/>
+      <c r="N184" s="37"/>
+      <c r="O184" s="37"/>
+      <c r="P184" s="37"/>
+      <c r="Q184" s="37"/>
+      <c r="R184" s="37"/>
+      <c r="S184" s="37"/>
+      <c r="Z184" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA184" s="4" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="27:27">
-      <c r="AA181" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="27:27">
-      <c r="AA182" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="27:27">
-      <c r="AA183" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="27:27">
-      <c r="AA184" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="27:27">
+    <row r="185" spans="1:27">
+      <c r="A185" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4985574222</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G185" s="1">
+        <v>13996115237</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J185" s="7">
+        <v>6</v>
+      </c>
+      <c r="K185" s="7">
+        <v>6</v>
+      </c>
+      <c r="N185" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q185" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z185" s="1">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
       <c r="AA185" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>U1-6;U2-6;U6-3;U9-2;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
+      <c r="A186" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5547977904</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G186" s="1">
+        <v>18554063857</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J186" s="7">
+        <v>10</v>
+      </c>
+      <c r="K186" s="7">
+        <v>30</v>
+      </c>
+      <c r="L186" s="7">
+        <v>5</v>
+      </c>
+      <c r="R186" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z186" s="1">
+        <f>SUM(J186:R186)</f>
+        <v>48</v>
+      </c>
       <c r="AA186" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>U1-10;U2-30;U3-5;U10-3;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
+      <c r="A187" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5549803073</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G187" s="1">
+        <v>13737261186</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M187" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z187" s="1">
+        <f>SUM(J187:R187)</f>
+        <v>1</v>
+      </c>
       <c r="AA187" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>U4-1;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
+      <c r="A188" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B188" s="1">
+        <v>3845646895</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G188" s="1">
+        <v>13708676662</v>
+      </c>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J188" s="7">
+        <v>1</v>
+      </c>
+      <c r="R188" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z188" s="1">
+        <f>SUM(J188:R188)</f>
+        <v>2</v>
+      </c>
       <c r="AA188" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>U1-1;U10-1;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
+      <c r="A189" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B189" s="1">
+        <v>8743797233</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G189" s="1">
+        <v>13724989834</v>
+      </c>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J189" s="7">
+        <v>1</v>
+      </c>
+      <c r="M189" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z189" s="1">
+        <f>SUM(J189:R189)</f>
+        <v>2</v>
+      </c>
       <c r="AA189" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>U1-1;U4-1;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
+      <c r="A190" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B190" s="1">
+        <v>8007617674</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G190" s="1">
+        <v>13724989834</v>
+      </c>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z190" s="1">
+        <f>SUM(J190:R190)</f>
+        <v>0</v>
+      </c>
       <c r="AA190" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>US5-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
+      <c r="A191" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2184059356</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G191" s="1">
+        <v>15573173337</v>
+      </c>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J191" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z191" s="1">
+        <f>SUM(J191:R191)</f>
+        <v>1</v>
+      </c>
       <c r="AA191" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="27:27">
+        <f t="shared" si="10"/>
+        <v>U1-1;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
+      <c r="A192" s="14">
+        <v>43574</v>
+      </c>
+      <c r="B192" s="1">
+        <v>8961292917</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G192" s="1">
+        <v>18926136666</v>
+      </c>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J192" s="7">
+        <v>3</v>
+      </c>
+      <c r="K192" s="7">
+        <v>3</v>
+      </c>
+      <c r="N192" s="7">
+        <v>1</v>
+      </c>
+      <c r="O192" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z192" s="1">
+        <f>SUM(J192:R192)</f>
+        <v>11</v>
+      </c>
       <c r="AA192" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>U1-3;U2-3;U6-1;U7-1;U9-3;</v>
       </c>
     </row>
     <row r="193" spans="27:27">
       <c r="AA193" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="27:27">
       <c r="AA194" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="27:27">
       <c r="AA195" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="27:27">
       <c r="AA196" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="27:27">
       <c r="AA197" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="27:27">
       <c r="AA198" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="27:27">
       <c r="AA199" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="27:27">
       <c r="AA200" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="27:27">
       <c r="AA201" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="27:27">
       <c r="AA202" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="27:27">
       <c r="AA203" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="27:27">
       <c r="AA204" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AA204:AA255" si="12">IF(J204&gt;0,"U1-"&amp;J204&amp;";","")&amp;IF(K204&gt;0,"U2-"&amp;K204&amp;";","")&amp;IF(L204&gt;0,"U3-"&amp;L204&amp;";","")&amp;IF(M204&gt;0,"U4-"&amp;M204&amp;";","")&amp;IF(N204&gt;0,"U6-"&amp;N204&amp;";","")&amp;IF(O204&gt;0,"U7-"&amp;O204&amp;";","")&amp;IF(P204&gt;0,"U8-"&amp;P204&amp;";","")&amp;IF(Q204&gt;0,"U9-"&amp;Q204&amp;";","")&amp;IF(R204&gt;0,"U10-"&amp;R204&amp;";","")&amp;U204</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="27:27">
       <c r="AA205" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="27:27">
       <c r="AA206" s="1" t="str">
-        <f t="shared" ref="AA206:AA257" si="11">IF(J206&gt;0,"U1-"&amp;J206&amp;";","")&amp;IF(K206&gt;0,"U2-"&amp;K206&amp;";","")&amp;IF(L206&gt;0,"U3-"&amp;L206&amp;";","")&amp;IF(M206&gt;0,"U4-"&amp;M206&amp;";","")&amp;IF(N206&gt;0,"U6-"&amp;N206&amp;";","")&amp;IF(O206&gt;0,"U7-"&amp;O206&amp;";","")&amp;IF(P206&gt;0,"U8-"&amp;P206&amp;";","")&amp;IF(Q206&gt;0,"U9-"&amp;Q206&amp;";","")&amp;IF(R206&gt;0,"U10-"&amp;R206&amp;";","")&amp;U206</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="27:27">
       <c r="AA207" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="27:27">
       <c r="AA208" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="27:27">
       <c r="AA209" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="27:27">
       <c r="AA210" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="27:27">
       <c r="AA211" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="27:27">
       <c r="AA212" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="27:27">
       <c r="AA213" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="27:27">
       <c r="AA214" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="27:27">
       <c r="AA215" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="27:27">
       <c r="AA216" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="27:27">
       <c r="AA217" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="27:27">
       <c r="AA218" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="27:27">
       <c r="AA219" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="27:27">
       <c r="AA220" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="27:27">
       <c r="AA221" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="27:27">
       <c r="AA222" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="27:27">
       <c r="AA223" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="27:27">
       <c r="AA224" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="27:27">
       <c r="AA225" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="27:27">
       <c r="AA226" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="27:27">
       <c r="AA227" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="27:27">
       <c r="AA228" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="27:27">
       <c r="AA229" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="27:27">
       <c r="AA230" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="27:27">
       <c r="AA231" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="27:27">
       <c r="AA232" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="27:27">
       <c r="AA233" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="27:27">
       <c r="AA234" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="27:27">
       <c r="AA235" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="27:27">
       <c r="AA236" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="27:27">
       <c r="AA237" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="27:27">
       <c r="AA238" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="27:27">
       <c r="AA239" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="27:27">
       <c r="AA240" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="27:27">
       <c r="AA241" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="27:27">
       <c r="AA242" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="27:27">
       <c r="AA243" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="27:27">
       <c r="AA244" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="27:27">
       <c r="AA245" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="27:27">
       <c r="AA246" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="27:27">
       <c r="AA247" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="27:27">
       <c r="AA248" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="27:27">
       <c r="AA249" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="27:27">
       <c r="AA250" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="27:27">
       <c r="AA251" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="27:27">
       <c r="AA252" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="27:27">
       <c r="AA253" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="27:27">
       <c r="AA254" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="27:27">
       <c r="AA255" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="27:27">
-      <c r="AA256" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="27:27">
-      <c r="AA257" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1048576" spans="10:18">
-      <c r="J1048576" s="5">
-        <f t="shared" ref="J1048576:R1048576" si="12">SUM(J2:J1048575)</f>
-        <v>205</v>
-      </c>
-      <c r="K1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>225</v>
-      </c>
-      <c r="L1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="M1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="N1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="O1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="P1048576" s="5">
-        <f t="shared" si="12"/>
+    <row r="1048574" spans="10:18">
+      <c r="J1048574" s="7">
+        <f>SUM(J2:J1048573)</f>
+        <v>229</v>
+      </c>
+      <c r="K1048574" s="7">
+        <f t="shared" ref="K1048574:R1048574" si="13">SUM(K2:K1048573)</f>
+        <v>268</v>
+      </c>
+      <c r="L1048574" s="7">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
+      <c r="M1048574" s="7">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="N1048574" s="7">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="O1048574" s="7">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="P1048574" s="7">
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="Q1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
-      <c r="R1048576" s="5">
-        <f t="shared" si="12"/>
-        <v>57</v>
+      <c r="Q1048574" s="7">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="R1048574" s="7">
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W173">
+  <autoFilter ref="A1:W177">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2019" month="4" day="18" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="4" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <extLst/>
